--- a/projects/test_building/input/Scenario_HeatingTechnology_EfficiencyCoefficient.xlsx
+++ b/projects/test_building/input/Scenario_HeatingTechnology_EfficiencyCoefficient.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10611"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C895203-7E59-BC43-9430-68179DF10E01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="22260" windowHeight="12640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -19,12 +20,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Author</author>
   </authors>
   <commentList>
-    <comment ref="B8" authorId="0" shapeId="0">
+    <comment ref="A8" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -32,7 +33,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Author:</t>
         </r>
@@ -41,14 +42,14 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 We took from 21 and needs update.</t>
         </r>
       </text>
     </comment>
-    <comment ref="B24" authorId="0" shapeId="0">
+    <comment ref="A24" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -56,7 +57,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Author:</t>
         </r>
@@ -65,14 +66,14 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 We took from 21 and needs update.</t>
         </r>
       </text>
     </comment>
-    <comment ref="B25" authorId="0" shapeId="0">
+    <comment ref="A25" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
       <text>
         <r>
           <rPr>
@@ -80,7 +81,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Author:</t>
         </r>
@@ -89,14 +90,14 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 We took from 22 and needs update.</t>
         </r>
       </text>
     </comment>
-    <comment ref="B26" authorId="0" shapeId="0">
+    <comment ref="A26" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
       <text>
         <r>
           <rPr>
@@ -104,7 +105,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Author:</t>
         </r>
@@ -113,14 +114,14 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 We took from 23 and needs update.</t>
         </r>
       </text>
     </comment>
-    <comment ref="B27" authorId="0" shapeId="0">
+    <comment ref="A27" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
       <text>
         <r>
           <rPr>
@@ -128,7 +129,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Author:</t>
         </r>
@@ -137,14 +138,14 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 We took from 21 and needs update.</t>
         </r>
       </text>
     </comment>
-    <comment ref="B28" authorId="0" shapeId="0">
+    <comment ref="A28" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000006000000}">
       <text>
         <r>
           <rPr>
@@ -152,7 +153,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Author:</t>
         </r>
@@ -161,14 +162,14 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 We took from 25 and needs update.</t>
         </r>
       </text>
     </comment>
-    <comment ref="B30" authorId="0" shapeId="0">
+    <comment ref="A30" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000007000000}">
       <text>
         <r>
           <rPr>
@@ -176,7 +177,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Author:</t>
         </r>
@@ -185,7 +186,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 need update</t>
@@ -197,12 +198,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="84">
   <si>
     <t>unit</t>
-  </si>
-  <si>
-    <t>id_scenario</t>
   </si>
   <si>
     <t>2020</t>
@@ -457,7 +455,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -470,14 +468,14 @@
       <sz val="9"/>
       <color indexed="81"/>
       <name val="Tahoma"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="9"/>
       <color indexed="81"/>
       <name val="Tahoma"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -520,94 +518,93 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:CG30" totalsRowShown="0">
-  <autoFilter ref="A1:CG30"/>
-  <tableColumns count="85">
-    <tableColumn id="1" name="id_scenario"/>
-    <tableColumn id="2" name="id_heating_technology"/>
-    <tableColumn id="85" name="id_energy_carrier"/>
-    <tableColumn id="3" name="unit"/>
-    <tableColumn id="6" name="1970"/>
-    <tableColumn id="7" name="1971"/>
-    <tableColumn id="8" name="1972"/>
-    <tableColumn id="9" name="1973"/>
-    <tableColumn id="10" name="1974"/>
-    <tableColumn id="11" name="1975"/>
-    <tableColumn id="12" name="1976"/>
-    <tableColumn id="13" name="1977"/>
-    <tableColumn id="14" name="1978"/>
-    <tableColumn id="15" name="1979"/>
-    <tableColumn id="16" name="1980"/>
-    <tableColumn id="17" name="1981"/>
-    <tableColumn id="4" name="1982"/>
-    <tableColumn id="5" name="1983"/>
-    <tableColumn id="18" name="1984"/>
-    <tableColumn id="19" name="1985"/>
-    <tableColumn id="20" name="1986"/>
-    <tableColumn id="21" name="1987"/>
-    <tableColumn id="22" name="1988"/>
-    <tableColumn id="23" name="1989"/>
-    <tableColumn id="24" name="1990"/>
-    <tableColumn id="25" name="1991"/>
-    <tableColumn id="26" name="1992"/>
-    <tableColumn id="27" name="1993"/>
-    <tableColumn id="28" name="1994"/>
-    <tableColumn id="29" name="1995"/>
-    <tableColumn id="30" name="1996"/>
-    <tableColumn id="31" name="1997"/>
-    <tableColumn id="32" name="1998"/>
-    <tableColumn id="33" name="1999"/>
-    <tableColumn id="34" name="2000"/>
-    <tableColumn id="35" name="2001"/>
-    <tableColumn id="36" name="2002"/>
-    <tableColumn id="37" name="2003"/>
-    <tableColumn id="38" name="2004"/>
-    <tableColumn id="39" name="2005"/>
-    <tableColumn id="40" name="2006"/>
-    <tableColumn id="41" name="2007"/>
-    <tableColumn id="42" name="2008"/>
-    <tableColumn id="43" name="2009"/>
-    <tableColumn id="44" name="2010"/>
-    <tableColumn id="45" name="2011"/>
-    <tableColumn id="46" name="2012"/>
-    <tableColumn id="47" name="2013"/>
-    <tableColumn id="48" name="2014"/>
-    <tableColumn id="49" name="2015"/>
-    <tableColumn id="50" name="2016"/>
-    <tableColumn id="51" name="2017"/>
-    <tableColumn id="52" name="2018"/>
-    <tableColumn id="53" name="2019"/>
-    <tableColumn id="54" name="2020"/>
-    <tableColumn id="55" name="2021"/>
-    <tableColumn id="56" name="2022"/>
-    <tableColumn id="57" name="2023"/>
-    <tableColumn id="58" name="2024"/>
-    <tableColumn id="59" name="2025"/>
-    <tableColumn id="60" name="2026"/>
-    <tableColumn id="61" name="2027"/>
-    <tableColumn id="62" name="2028"/>
-    <tableColumn id="63" name="2029"/>
-    <tableColumn id="64" name="2030"/>
-    <tableColumn id="65" name="2031"/>
-    <tableColumn id="66" name="2032"/>
-    <tableColumn id="67" name="2033"/>
-    <tableColumn id="68" name="2034"/>
-    <tableColumn id="69" name="2035"/>
-    <tableColumn id="70" name="2036"/>
-    <tableColumn id="71" name="2037"/>
-    <tableColumn id="72" name="2038"/>
-    <tableColumn id="73" name="2039"/>
-    <tableColumn id="74" name="2040"/>
-    <tableColumn id="75" name="2041"/>
-    <tableColumn id="76" name="2042"/>
-    <tableColumn id="77" name="2043"/>
-    <tableColumn id="78" name="2044"/>
-    <tableColumn id="79" name="2045"/>
-    <tableColumn id="80" name="2046"/>
-    <tableColumn id="81" name="2047"/>
-    <tableColumn id="82" name="2048"/>
-    <tableColumn id="83" name="2049"/>
-    <tableColumn id="84" name="2050"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:CF30" totalsRowShown="0">
+  <autoFilter ref="A1:CF30" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <tableColumns count="84">
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="id_heating_technology"/>
+    <tableColumn id="85" xr3:uid="{00000000-0010-0000-0000-000055000000}" name="id_energy_carrier"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="unit"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="1970"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="1971"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="1972"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="1973"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="1974"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="1975"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="1976"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="1977"/>
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="1978"/>
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="1979"/>
+    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0000-000010000000}" name="1980"/>
+    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0000-000011000000}" name="1981"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="1982"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="1983"/>
+    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0000-000012000000}" name="1984"/>
+    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0000-000013000000}" name="1985"/>
+    <tableColumn id="20" xr3:uid="{00000000-0010-0000-0000-000014000000}" name="1986"/>
+    <tableColumn id="21" xr3:uid="{00000000-0010-0000-0000-000015000000}" name="1987"/>
+    <tableColumn id="22" xr3:uid="{00000000-0010-0000-0000-000016000000}" name="1988"/>
+    <tableColumn id="23" xr3:uid="{00000000-0010-0000-0000-000017000000}" name="1989"/>
+    <tableColumn id="24" xr3:uid="{00000000-0010-0000-0000-000018000000}" name="1990"/>
+    <tableColumn id="25" xr3:uid="{00000000-0010-0000-0000-000019000000}" name="1991"/>
+    <tableColumn id="26" xr3:uid="{00000000-0010-0000-0000-00001A000000}" name="1992"/>
+    <tableColumn id="27" xr3:uid="{00000000-0010-0000-0000-00001B000000}" name="1993"/>
+    <tableColumn id="28" xr3:uid="{00000000-0010-0000-0000-00001C000000}" name="1994"/>
+    <tableColumn id="29" xr3:uid="{00000000-0010-0000-0000-00001D000000}" name="1995"/>
+    <tableColumn id="30" xr3:uid="{00000000-0010-0000-0000-00001E000000}" name="1996"/>
+    <tableColumn id="31" xr3:uid="{00000000-0010-0000-0000-00001F000000}" name="1997"/>
+    <tableColumn id="32" xr3:uid="{00000000-0010-0000-0000-000020000000}" name="1998"/>
+    <tableColumn id="33" xr3:uid="{00000000-0010-0000-0000-000021000000}" name="1999"/>
+    <tableColumn id="34" xr3:uid="{00000000-0010-0000-0000-000022000000}" name="2000"/>
+    <tableColumn id="35" xr3:uid="{00000000-0010-0000-0000-000023000000}" name="2001"/>
+    <tableColumn id="36" xr3:uid="{00000000-0010-0000-0000-000024000000}" name="2002"/>
+    <tableColumn id="37" xr3:uid="{00000000-0010-0000-0000-000025000000}" name="2003"/>
+    <tableColumn id="38" xr3:uid="{00000000-0010-0000-0000-000026000000}" name="2004"/>
+    <tableColumn id="39" xr3:uid="{00000000-0010-0000-0000-000027000000}" name="2005"/>
+    <tableColumn id="40" xr3:uid="{00000000-0010-0000-0000-000028000000}" name="2006"/>
+    <tableColumn id="41" xr3:uid="{00000000-0010-0000-0000-000029000000}" name="2007"/>
+    <tableColumn id="42" xr3:uid="{00000000-0010-0000-0000-00002A000000}" name="2008"/>
+    <tableColumn id="43" xr3:uid="{00000000-0010-0000-0000-00002B000000}" name="2009"/>
+    <tableColumn id="44" xr3:uid="{00000000-0010-0000-0000-00002C000000}" name="2010"/>
+    <tableColumn id="45" xr3:uid="{00000000-0010-0000-0000-00002D000000}" name="2011"/>
+    <tableColumn id="46" xr3:uid="{00000000-0010-0000-0000-00002E000000}" name="2012"/>
+    <tableColumn id="47" xr3:uid="{00000000-0010-0000-0000-00002F000000}" name="2013"/>
+    <tableColumn id="48" xr3:uid="{00000000-0010-0000-0000-000030000000}" name="2014"/>
+    <tableColumn id="49" xr3:uid="{00000000-0010-0000-0000-000031000000}" name="2015"/>
+    <tableColumn id="50" xr3:uid="{00000000-0010-0000-0000-000032000000}" name="2016"/>
+    <tableColumn id="51" xr3:uid="{00000000-0010-0000-0000-000033000000}" name="2017"/>
+    <tableColumn id="52" xr3:uid="{00000000-0010-0000-0000-000034000000}" name="2018"/>
+    <tableColumn id="53" xr3:uid="{00000000-0010-0000-0000-000035000000}" name="2019"/>
+    <tableColumn id="54" xr3:uid="{00000000-0010-0000-0000-000036000000}" name="2020"/>
+    <tableColumn id="55" xr3:uid="{00000000-0010-0000-0000-000037000000}" name="2021"/>
+    <tableColumn id="56" xr3:uid="{00000000-0010-0000-0000-000038000000}" name="2022"/>
+    <tableColumn id="57" xr3:uid="{00000000-0010-0000-0000-000039000000}" name="2023"/>
+    <tableColumn id="58" xr3:uid="{00000000-0010-0000-0000-00003A000000}" name="2024"/>
+    <tableColumn id="59" xr3:uid="{00000000-0010-0000-0000-00003B000000}" name="2025"/>
+    <tableColumn id="60" xr3:uid="{00000000-0010-0000-0000-00003C000000}" name="2026"/>
+    <tableColumn id="61" xr3:uid="{00000000-0010-0000-0000-00003D000000}" name="2027"/>
+    <tableColumn id="62" xr3:uid="{00000000-0010-0000-0000-00003E000000}" name="2028"/>
+    <tableColumn id="63" xr3:uid="{00000000-0010-0000-0000-00003F000000}" name="2029"/>
+    <tableColumn id="64" xr3:uid="{00000000-0010-0000-0000-000040000000}" name="2030"/>
+    <tableColumn id="65" xr3:uid="{00000000-0010-0000-0000-000041000000}" name="2031"/>
+    <tableColumn id="66" xr3:uid="{00000000-0010-0000-0000-000042000000}" name="2032"/>
+    <tableColumn id="67" xr3:uid="{00000000-0010-0000-0000-000043000000}" name="2033"/>
+    <tableColumn id="68" xr3:uid="{00000000-0010-0000-0000-000044000000}" name="2034"/>
+    <tableColumn id="69" xr3:uid="{00000000-0010-0000-0000-000045000000}" name="2035"/>
+    <tableColumn id="70" xr3:uid="{00000000-0010-0000-0000-000046000000}" name="2036"/>
+    <tableColumn id="71" xr3:uid="{00000000-0010-0000-0000-000047000000}" name="2037"/>
+    <tableColumn id="72" xr3:uid="{00000000-0010-0000-0000-000048000000}" name="2038"/>
+    <tableColumn id="73" xr3:uid="{00000000-0010-0000-0000-000049000000}" name="2039"/>
+    <tableColumn id="74" xr3:uid="{00000000-0010-0000-0000-00004A000000}" name="2040"/>
+    <tableColumn id="75" xr3:uid="{00000000-0010-0000-0000-00004B000000}" name="2041"/>
+    <tableColumn id="76" xr3:uid="{00000000-0010-0000-0000-00004C000000}" name="2042"/>
+    <tableColumn id="77" xr3:uid="{00000000-0010-0000-0000-00004D000000}" name="2043"/>
+    <tableColumn id="78" xr3:uid="{00000000-0010-0000-0000-00004E000000}" name="2044"/>
+    <tableColumn id="79" xr3:uid="{00000000-0010-0000-0000-00004F000000}" name="2045"/>
+    <tableColumn id="80" xr3:uid="{00000000-0010-0000-0000-000050000000}" name="2046"/>
+    <tableColumn id="81" xr3:uid="{00000000-0010-0000-0000-000051000000}" name="2047"/>
+    <tableColumn id="82" xr3:uid="{00000000-0010-0000-0000-000052000000}" name="2048"/>
+    <tableColumn id="83" xr3:uid="{00000000-0010-0000-0000-000053000000}" name="2049"/>
+    <tableColumn id="84" xr3:uid="{00000000-0010-0000-0000-000054000000}" name="2050"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -875,32 +872,31 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:CG30"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:CF30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P12" sqref="P12"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.28515625" customWidth="1"/>
-    <col min="2" max="2" width="24" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24" customWidth="1"/>
+    <col min="1" max="1" width="24" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B1" t="s">
-        <v>4</v>
+        <v>83</v>
       </c>
       <c r="C1" t="s">
-        <v>84</v>
+        <v>0</v>
       </c>
       <c r="D1" t="s">
-        <v>0</v>
+        <v>43</v>
       </c>
       <c r="E1" t="s">
         <v>44</v>
@@ -1020,7 +1016,7 @@
         <v>82</v>
       </c>
       <c r="AR1" t="s">
-        <v>83</v>
+        <v>4</v>
       </c>
       <c r="AS1" t="s">
         <v>5</v>
@@ -1050,13 +1046,13 @@
         <v>13</v>
       </c>
       <c r="BB1" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="BC1" t="s">
         <v>2</v>
       </c>
       <c r="BD1" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="BE1" t="s">
         <v>15</v>
@@ -1142,22 +1138,19 @@
       <c r="CF1" t="s">
         <v>42</v>
       </c>
-      <c r="CG1" t="s">
-        <v>43</v>
-      </c>
     </row>
-    <row r="2" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A2">
+        <v>11</v>
+      </c>
+      <c r="B2">
+        <v>13</v>
+      </c>
+      <c r="C2">
         <v>1</v>
       </c>
-      <c r="B2">
-        <v>11</v>
-      </c>
-      <c r="C2">
-        <v>13</v>
-      </c>
       <c r="D2">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="E2">
         <v>0.95</v>
@@ -1229,7 +1222,7 @@
         <v>0.95</v>
       </c>
       <c r="AB2">
-        <v>0.95</v>
+        <v>0.96</v>
       </c>
       <c r="AC2">
         <v>0.96</v>
@@ -1301,7 +1294,7 @@
         <v>0.96</v>
       </c>
       <c r="AZ2">
-        <v>0.96</v>
+        <v>0.97</v>
       </c>
       <c r="BA2">
         <v>0.97</v>
@@ -1376,7 +1369,7 @@
         <v>0.97</v>
       </c>
       <c r="BY2">
-        <v>0.97</v>
+        <v>0.98</v>
       </c>
       <c r="BZ2">
         <v>0.98</v>
@@ -1399,22 +1392,19 @@
       <c r="CF2">
         <v>0.98</v>
       </c>
-      <c r="CG2">
-        <v>0.98</v>
-      </c>
     </row>
-    <row r="3" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A3">
+        <v>21</v>
+      </c>
+      <c r="B3">
+        <v>6</v>
+      </c>
+      <c r="C3">
         <v>1</v>
       </c>
-      <c r="B3">
-        <v>21</v>
-      </c>
-      <c r="C3">
-        <v>6</v>
-      </c>
       <c r="D3">
-        <v>1</v>
+        <v>0.81</v>
       </c>
       <c r="E3">
         <v>0.81</v>
@@ -1435,7 +1425,7 @@
         <v>0.81</v>
       </c>
       <c r="K3">
-        <v>0.81</v>
+        <v>0.82</v>
       </c>
       <c r="L3">
         <v>0.82</v>
@@ -1471,7 +1461,7 @@
         <v>0.82</v>
       </c>
       <c r="W3">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="X3">
         <v>0.83</v>
@@ -1492,7 +1482,7 @@
         <v>0.83</v>
       </c>
       <c r="AD3">
-        <v>0.83</v>
+        <v>0.84</v>
       </c>
       <c r="AE3">
         <v>0.84</v>
@@ -1510,7 +1500,7 @@
         <v>0.84</v>
       </c>
       <c r="AJ3">
-        <v>0.84</v>
+        <v>0.85</v>
       </c>
       <c r="AK3">
         <v>0.85</v>
@@ -1531,7 +1521,7 @@
         <v>0.85</v>
       </c>
       <c r="AQ3">
-        <v>0.85</v>
+        <v>0.86</v>
       </c>
       <c r="AR3">
         <v>0.86</v>
@@ -1540,7 +1530,7 @@
         <v>0.86</v>
       </c>
       <c r="AT3">
-        <v>0.86</v>
+        <v>0.87</v>
       </c>
       <c r="AU3">
         <v>0.87</v>
@@ -1549,13 +1539,13 @@
         <v>0.87</v>
       </c>
       <c r="AW3">
-        <v>0.87</v>
+        <v>0.88</v>
       </c>
       <c r="AX3">
         <v>0.88</v>
       </c>
       <c r="AY3">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AZ3">
         <v>0.89</v>
@@ -1564,7 +1554,7 @@
         <v>0.89</v>
       </c>
       <c r="BB3">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="BC3">
         <v>0.9</v>
@@ -1573,7 +1563,7 @@
         <v>0.9</v>
       </c>
       <c r="BE3">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="BF3">
         <v>0.91</v>
@@ -1588,7 +1578,7 @@
         <v>0.91</v>
       </c>
       <c r="BJ3">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
       <c r="BK3">
         <v>0.92</v>
@@ -1600,7 +1590,7 @@
         <v>0.92</v>
       </c>
       <c r="BN3">
-        <v>0.92</v>
+        <v>0.93</v>
       </c>
       <c r="BO3">
         <v>0.93</v>
@@ -1621,7 +1611,7 @@
         <v>0.93</v>
       </c>
       <c r="BU3">
-        <v>0.93</v>
+        <v>0.94</v>
       </c>
       <c r="BV3">
         <v>0.94</v>
@@ -1639,7 +1629,7 @@
         <v>0.94</v>
       </c>
       <c r="CA3">
-        <v>0.94</v>
+        <v>0.95</v>
       </c>
       <c r="CB3">
         <v>0.95</v>
@@ -1656,22 +1646,19 @@
       <c r="CF3">
         <v>0.95</v>
       </c>
-      <c r="CG3">
-        <v>0.95</v>
-      </c>
     </row>
-    <row r="4" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A4">
+        <v>22</v>
+      </c>
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4">
         <v>1</v>
       </c>
-      <c r="B4">
-        <v>22</v>
-      </c>
-      <c r="C4">
-        <v>2</v>
-      </c>
       <c r="D4">
-        <v>1</v>
+        <v>0.74</v>
       </c>
       <c r="E4">
         <v>0.74</v>
@@ -1683,7 +1670,7 @@
         <v>0.74</v>
       </c>
       <c r="H4">
-        <v>0.74</v>
+        <v>0.75</v>
       </c>
       <c r="I4">
         <v>0.75</v>
@@ -1713,7 +1700,7 @@
         <v>0.75</v>
       </c>
       <c r="R4">
-        <v>0.75</v>
+        <v>0.76</v>
       </c>
       <c r="S4">
         <v>0.76</v>
@@ -1737,7 +1724,7 @@
         <v>0.76</v>
       </c>
       <c r="Z4">
-        <v>0.76</v>
+        <v>0.77</v>
       </c>
       <c r="AA4">
         <v>0.77</v>
@@ -1752,7 +1739,7 @@
         <v>0.77</v>
       </c>
       <c r="AE4">
-        <v>0.77</v>
+        <v>0.78</v>
       </c>
       <c r="AF4">
         <v>0.78</v>
@@ -1767,7 +1754,7 @@
         <v>0.78</v>
       </c>
       <c r="AJ4">
-        <v>0.78</v>
+        <v>0.79</v>
       </c>
       <c r="AK4">
         <v>0.79</v>
@@ -1779,7 +1766,7 @@
         <v>0.79</v>
       </c>
       <c r="AN4">
-        <v>0.79</v>
+        <v>0.8</v>
       </c>
       <c r="AO4">
         <v>0.8</v>
@@ -1794,34 +1781,34 @@
         <v>0.8</v>
       </c>
       <c r="AS4">
-        <v>0.8</v>
+        <v>0.81</v>
       </c>
       <c r="AT4">
         <v>0.81</v>
       </c>
       <c r="AU4">
-        <v>0.81</v>
+        <v>0.82</v>
       </c>
       <c r="AV4">
         <v>0.82</v>
       </c>
       <c r="AW4">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AX4">
-        <v>0.83</v>
+        <v>0.84</v>
       </c>
       <c r="AY4">
         <v>0.84</v>
       </c>
       <c r="AZ4">
-        <v>0.84</v>
+        <v>0.85</v>
       </c>
       <c r="BA4">
         <v>0.85</v>
       </c>
       <c r="BB4">
-        <v>0.85</v>
+        <v>0.86</v>
       </c>
       <c r="BC4">
         <v>0.86</v>
@@ -1830,7 +1817,7 @@
         <v>0.86</v>
       </c>
       <c r="BE4">
-        <v>0.86</v>
+        <v>0.87</v>
       </c>
       <c r="BF4">
         <v>0.87</v>
@@ -1842,7 +1829,7 @@
         <v>0.87</v>
       </c>
       <c r="BI4">
-        <v>0.87</v>
+        <v>0.88</v>
       </c>
       <c r="BJ4">
         <v>0.88</v>
@@ -1851,7 +1838,7 @@
         <v>0.88</v>
       </c>
       <c r="BL4">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="BM4">
         <v>0.89</v>
@@ -1863,7 +1850,7 @@
         <v>0.89</v>
       </c>
       <c r="BP4">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="BQ4">
         <v>0.9</v>
@@ -1878,7 +1865,7 @@
         <v>0.9</v>
       </c>
       <c r="BU4">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="BV4">
         <v>0.91</v>
@@ -1893,7 +1880,7 @@
         <v>0.91</v>
       </c>
       <c r="BZ4">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
       <c r="CA4">
         <v>0.92</v>
@@ -1908,27 +1895,24 @@
         <v>0.92</v>
       </c>
       <c r="CE4">
-        <v>0.92</v>
+        <v>0.93</v>
       </c>
       <c r="CF4">
         <v>0.93</v>
       </c>
-      <c r="CG4">
-        <v>0.93</v>
-      </c>
     </row>
-    <row r="5" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A5">
+        <v>23</v>
+      </c>
+      <c r="B5">
+        <v>12</v>
+      </c>
+      <c r="C5">
         <v>1</v>
       </c>
-      <c r="B5">
-        <v>23</v>
-      </c>
-      <c r="C5">
-        <v>12</v>
-      </c>
       <c r="D5">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="E5">
         <v>0.7</v>
@@ -1943,7 +1927,7 @@
         <v>0.7</v>
       </c>
       <c r="I5">
-        <v>0.7</v>
+        <v>0.71</v>
       </c>
       <c r="J5">
         <v>0.71</v>
@@ -1970,7 +1954,7 @@
         <v>0.71</v>
       </c>
       <c r="R5">
-        <v>0.71</v>
+        <v>0.72</v>
       </c>
       <c r="S5">
         <v>0.72</v>
@@ -1991,7 +1975,7 @@
         <v>0.72</v>
       </c>
       <c r="Y5">
-        <v>0.72</v>
+        <v>0.73</v>
       </c>
       <c r="Z5">
         <v>0.73</v>
@@ -2006,7 +1990,7 @@
         <v>0.73</v>
       </c>
       <c r="AD5">
-        <v>0.73</v>
+        <v>0.74</v>
       </c>
       <c r="AE5">
         <v>0.74</v>
@@ -2018,7 +2002,7 @@
         <v>0.74</v>
       </c>
       <c r="AH5">
-        <v>0.74</v>
+        <v>0.75</v>
       </c>
       <c r="AI5">
         <v>0.75</v>
@@ -2030,7 +2014,7 @@
         <v>0.75</v>
       </c>
       <c r="AL5">
-        <v>0.75</v>
+        <v>0.76</v>
       </c>
       <c r="AM5">
         <v>0.76</v>
@@ -2045,7 +2029,7 @@
         <v>0.76</v>
       </c>
       <c r="AQ5">
-        <v>0.76</v>
+        <v>0.77</v>
       </c>
       <c r="AR5">
         <v>0.77</v>
@@ -2054,31 +2038,31 @@
         <v>0.77</v>
       </c>
       <c r="AT5">
-        <v>0.77</v>
+        <v>0.78</v>
       </c>
       <c r="AU5">
-        <v>0.78</v>
+        <v>0.79</v>
       </c>
       <c r="AV5">
         <v>0.79</v>
       </c>
       <c r="AW5">
-        <v>0.79</v>
+        <v>0.8</v>
       </c>
       <c r="AX5">
         <v>0.8</v>
       </c>
       <c r="AY5">
-        <v>0.8</v>
+        <v>0.81</v>
       </c>
       <c r="AZ5">
-        <v>0.81</v>
+        <v>0.82</v>
       </c>
       <c r="BA5">
         <v>0.82</v>
       </c>
       <c r="BB5">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="BC5">
         <v>0.83</v>
@@ -2087,7 +2071,7 @@
         <v>0.83</v>
       </c>
       <c r="BE5">
-        <v>0.83</v>
+        <v>0.84</v>
       </c>
       <c r="BF5">
         <v>0.84</v>
@@ -2096,7 +2080,7 @@
         <v>0.84</v>
       </c>
       <c r="BH5">
-        <v>0.84</v>
+        <v>0.85</v>
       </c>
       <c r="BI5">
         <v>0.85</v>
@@ -2105,7 +2089,7 @@
         <v>0.85</v>
       </c>
       <c r="BK5">
-        <v>0.85</v>
+        <v>0.86</v>
       </c>
       <c r="BL5">
         <v>0.86</v>
@@ -2114,7 +2098,7 @@
         <v>0.86</v>
       </c>
       <c r="BN5">
-        <v>0.86</v>
+        <v>0.87</v>
       </c>
       <c r="BO5">
         <v>0.87</v>
@@ -2129,7 +2113,7 @@
         <v>0.87</v>
       </c>
       <c r="BS5">
-        <v>0.87</v>
+        <v>0.88</v>
       </c>
       <c r="BT5">
         <v>0.88</v>
@@ -2141,7 +2125,7 @@
         <v>0.88</v>
       </c>
       <c r="BW5">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="BX5">
         <v>0.89</v>
@@ -2153,7 +2137,7 @@
         <v>0.89</v>
       </c>
       <c r="CA5">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="CB5">
         <v>0.9</v>
@@ -2168,24 +2152,21 @@
         <v>0.9</v>
       </c>
       <c r="CF5">
-        <v>0.9</v>
-      </c>
-      <c r="CG5">
         <v>0.91</v>
       </c>
     </row>
-    <row r="6" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A6">
+        <v>24</v>
+      </c>
+      <c r="B6">
+        <v>19</v>
+      </c>
+      <c r="C6">
         <v>1</v>
       </c>
-      <c r="B6">
-        <v>24</v>
-      </c>
-      <c r="C6">
-        <v>19</v>
-      </c>
       <c r="D6">
-        <v>1</v>
+        <v>0.81</v>
       </c>
       <c r="E6">
         <v>0.81</v>
@@ -2206,7 +2187,7 @@
         <v>0.81</v>
       </c>
       <c r="K6">
-        <v>0.81</v>
+        <v>0.82</v>
       </c>
       <c r="L6">
         <v>0.82</v>
@@ -2242,7 +2223,7 @@
         <v>0.82</v>
       </c>
       <c r="W6">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="X6">
         <v>0.83</v>
@@ -2263,7 +2244,7 @@
         <v>0.83</v>
       </c>
       <c r="AD6">
-        <v>0.83</v>
+        <v>0.84</v>
       </c>
       <c r="AE6">
         <v>0.84</v>
@@ -2281,7 +2262,7 @@
         <v>0.84</v>
       </c>
       <c r="AJ6">
-        <v>0.84</v>
+        <v>0.85</v>
       </c>
       <c r="AK6">
         <v>0.85</v>
@@ -2302,7 +2283,7 @@
         <v>0.85</v>
       </c>
       <c r="AQ6">
-        <v>0.85</v>
+        <v>0.86</v>
       </c>
       <c r="AR6">
         <v>0.86</v>
@@ -2311,7 +2292,7 @@
         <v>0.86</v>
       </c>
       <c r="AT6">
-        <v>0.86</v>
+        <v>0.87</v>
       </c>
       <c r="AU6">
         <v>0.87</v>
@@ -2320,13 +2301,13 @@
         <v>0.87</v>
       </c>
       <c r="AW6">
-        <v>0.87</v>
+        <v>0.88</v>
       </c>
       <c r="AX6">
         <v>0.88</v>
       </c>
       <c r="AY6">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AZ6">
         <v>0.89</v>
@@ -2335,7 +2316,7 @@
         <v>0.89</v>
       </c>
       <c r="BB6">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="BC6">
         <v>0.9</v>
@@ -2344,7 +2325,7 @@
         <v>0.9</v>
       </c>
       <c r="BE6">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="BF6">
         <v>0.91</v>
@@ -2359,7 +2340,7 @@
         <v>0.91</v>
       </c>
       <c r="BJ6">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
       <c r="BK6">
         <v>0.92</v>
@@ -2371,7 +2352,7 @@
         <v>0.92</v>
       </c>
       <c r="BN6">
-        <v>0.92</v>
+        <v>0.93</v>
       </c>
       <c r="BO6">
         <v>0.93</v>
@@ -2392,7 +2373,7 @@
         <v>0.93</v>
       </c>
       <c r="BU6">
-        <v>0.93</v>
+        <v>0.94</v>
       </c>
       <c r="BV6">
         <v>0.94</v>
@@ -2410,7 +2391,7 @@
         <v>0.94</v>
       </c>
       <c r="CA6">
-        <v>0.94</v>
+        <v>0.95</v>
       </c>
       <c r="CB6">
         <v>0.95</v>
@@ -2427,22 +2408,19 @@
       <c r="CF6">
         <v>0.95</v>
       </c>
-      <c r="CG6">
-        <v>0.95</v>
-      </c>
     </row>
-    <row r="7" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A7">
+        <v>25</v>
+      </c>
+      <c r="B7">
+        <v>3</v>
+      </c>
+      <c r="C7">
         <v>1</v>
       </c>
-      <c r="B7">
-        <v>25</v>
-      </c>
-      <c r="C7">
-        <v>3</v>
-      </c>
       <c r="D7">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="E7">
         <v>0.6</v>
@@ -2475,7 +2453,7 @@
         <v>0.6</v>
       </c>
       <c r="O7">
-        <v>0.6</v>
+        <v>0.61</v>
       </c>
       <c r="P7">
         <v>0.61</v>
@@ -2514,7 +2492,7 @@
         <v>0.61</v>
       </c>
       <c r="AB7">
-        <v>0.61</v>
+        <v>0.62</v>
       </c>
       <c r="AC7">
         <v>0.62</v>
@@ -2538,7 +2516,7 @@
         <v>0.62</v>
       </c>
       <c r="AJ7">
-        <v>0.62</v>
+        <v>0.63</v>
       </c>
       <c r="AK7">
         <v>0.63</v>
@@ -2559,7 +2537,7 @@
         <v>0.63</v>
       </c>
       <c r="AQ7">
-        <v>0.63</v>
+        <v>0.64</v>
       </c>
       <c r="AR7">
         <v>0.64</v>
@@ -2571,7 +2549,7 @@
         <v>0.64</v>
       </c>
       <c r="AU7">
-        <v>0.64</v>
+        <v>0.65</v>
       </c>
       <c r="AV7">
         <v>0.65</v>
@@ -2580,7 +2558,7 @@
         <v>0.65</v>
       </c>
       <c r="AX7">
-        <v>0.65</v>
+        <v>0.66</v>
       </c>
       <c r="AY7">
         <v>0.66</v>
@@ -2589,7 +2567,7 @@
         <v>0.66</v>
       </c>
       <c r="BA7">
-        <v>0.66</v>
+        <v>0.67</v>
       </c>
       <c r="BB7">
         <v>0.67</v>
@@ -2604,7 +2582,7 @@
         <v>0.67</v>
       </c>
       <c r="BF7">
-        <v>0.67</v>
+        <v>0.68</v>
       </c>
       <c r="BG7">
         <v>0.68</v>
@@ -2619,7 +2597,7 @@
         <v>0.68</v>
       </c>
       <c r="BK7">
-        <v>0.68</v>
+        <v>0.69</v>
       </c>
       <c r="BL7">
         <v>0.69</v>
@@ -2640,7 +2618,7 @@
         <v>0.69</v>
       </c>
       <c r="BR7">
-        <v>0.69</v>
+        <v>0.7</v>
       </c>
       <c r="BS7">
         <v>0.7</v>
@@ -2664,7 +2642,7 @@
         <v>0.7</v>
       </c>
       <c r="BZ7">
-        <v>0.7</v>
+        <v>0.71</v>
       </c>
       <c r="CA7">
         <v>0.71</v>
@@ -2684,22 +2662,19 @@
       <c r="CF7">
         <v>0.71</v>
       </c>
-      <c r="CG7">
-        <v>0.71</v>
-      </c>
     </row>
-    <row r="8" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A8">
+        <v>26</v>
+      </c>
+      <c r="B8">
+        <v>6</v>
+      </c>
+      <c r="C8">
         <v>1</v>
       </c>
-      <c r="B8">
-        <v>26</v>
-      </c>
-      <c r="C8">
-        <v>6</v>
-      </c>
       <c r="D8">
-        <v>1</v>
+        <v>0.81</v>
       </c>
       <c r="E8">
         <v>0.81</v>
@@ -2720,7 +2695,7 @@
         <v>0.81</v>
       </c>
       <c r="K8">
-        <v>0.81</v>
+        <v>0.82</v>
       </c>
       <c r="L8">
         <v>0.82</v>
@@ -2756,7 +2731,7 @@
         <v>0.82</v>
       </c>
       <c r="W8">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="X8">
         <v>0.83</v>
@@ -2777,7 +2752,7 @@
         <v>0.83</v>
       </c>
       <c r="AD8">
-        <v>0.83</v>
+        <v>0.84</v>
       </c>
       <c r="AE8">
         <v>0.84</v>
@@ -2795,7 +2770,7 @@
         <v>0.84</v>
       </c>
       <c r="AJ8">
-        <v>0.84</v>
+        <v>0.85</v>
       </c>
       <c r="AK8">
         <v>0.85</v>
@@ -2816,7 +2791,7 @@
         <v>0.85</v>
       </c>
       <c r="AQ8">
-        <v>0.85</v>
+        <v>0.86</v>
       </c>
       <c r="AR8">
         <v>0.86</v>
@@ -2825,7 +2800,7 @@
         <v>0.86</v>
       </c>
       <c r="AT8">
-        <v>0.86</v>
+        <v>0.87</v>
       </c>
       <c r="AU8">
         <v>0.87</v>
@@ -2834,13 +2809,13 @@
         <v>0.87</v>
       </c>
       <c r="AW8">
-        <v>0.87</v>
+        <v>0.88</v>
       </c>
       <c r="AX8">
         <v>0.88</v>
       </c>
       <c r="AY8">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AZ8">
         <v>0.89</v>
@@ -2849,7 +2824,7 @@
         <v>0.89</v>
       </c>
       <c r="BB8">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="BC8">
         <v>0.9</v>
@@ -2858,7 +2833,7 @@
         <v>0.9</v>
       </c>
       <c r="BE8">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="BF8">
         <v>0.91</v>
@@ -2873,7 +2848,7 @@
         <v>0.91</v>
       </c>
       <c r="BJ8">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
       <c r="BK8">
         <v>0.92</v>
@@ -2885,7 +2860,7 @@
         <v>0.92</v>
       </c>
       <c r="BN8">
-        <v>0.92</v>
+        <v>0.93</v>
       </c>
       <c r="BO8">
         <v>0.93</v>
@@ -2906,7 +2881,7 @@
         <v>0.93</v>
       </c>
       <c r="BU8">
-        <v>0.93</v>
+        <v>0.94</v>
       </c>
       <c r="BV8">
         <v>0.94</v>
@@ -2924,7 +2899,7 @@
         <v>0.94</v>
       </c>
       <c r="CA8">
-        <v>0.94</v>
+        <v>0.95</v>
       </c>
       <c r="CB8">
         <v>0.95</v>
@@ -2941,22 +2916,19 @@
       <c r="CF8">
         <v>0.95</v>
       </c>
-      <c r="CG8">
-        <v>0.95</v>
-      </c>
     </row>
-    <row r="9" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A9">
+        <v>27</v>
+      </c>
+      <c r="B9">
+        <v>2</v>
+      </c>
+      <c r="C9">
         <v>1</v>
       </c>
-      <c r="B9">
-        <v>27</v>
-      </c>
-      <c r="C9">
-        <v>2</v>
-      </c>
       <c r="D9">
-        <v>1</v>
+        <v>0.74</v>
       </c>
       <c r="E9">
         <v>0.74</v>
@@ -2968,7 +2940,7 @@
         <v>0.74</v>
       </c>
       <c r="H9">
-        <v>0.74</v>
+        <v>0.75</v>
       </c>
       <c r="I9">
         <v>0.75</v>
@@ -2998,7 +2970,7 @@
         <v>0.75</v>
       </c>
       <c r="R9">
-        <v>0.75</v>
+        <v>0.76</v>
       </c>
       <c r="S9">
         <v>0.76</v>
@@ -3022,7 +2994,7 @@
         <v>0.76</v>
       </c>
       <c r="Z9">
-        <v>0.76</v>
+        <v>0.77</v>
       </c>
       <c r="AA9">
         <v>0.77</v>
@@ -3037,7 +3009,7 @@
         <v>0.77</v>
       </c>
       <c r="AE9">
-        <v>0.77</v>
+        <v>0.78</v>
       </c>
       <c r="AF9">
         <v>0.78</v>
@@ -3052,7 +3024,7 @@
         <v>0.78</v>
       </c>
       <c r="AJ9">
-        <v>0.78</v>
+        <v>0.79</v>
       </c>
       <c r="AK9">
         <v>0.79</v>
@@ -3064,7 +3036,7 @@
         <v>0.79</v>
       </c>
       <c r="AN9">
-        <v>0.79</v>
+        <v>0.8</v>
       </c>
       <c r="AO9">
         <v>0.8</v>
@@ -3079,34 +3051,34 @@
         <v>0.8</v>
       </c>
       <c r="AS9">
-        <v>0.8</v>
+        <v>0.81</v>
       </c>
       <c r="AT9">
         <v>0.81</v>
       </c>
       <c r="AU9">
-        <v>0.81</v>
+        <v>0.82</v>
       </c>
       <c r="AV9">
         <v>0.82</v>
       </c>
       <c r="AW9">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AX9">
-        <v>0.83</v>
+        <v>0.84</v>
       </c>
       <c r="AY9">
         <v>0.84</v>
       </c>
       <c r="AZ9">
-        <v>0.84</v>
+        <v>0.85</v>
       </c>
       <c r="BA9">
         <v>0.85</v>
       </c>
       <c r="BB9">
-        <v>0.85</v>
+        <v>0.86</v>
       </c>
       <c r="BC9">
         <v>0.86</v>
@@ -3115,7 +3087,7 @@
         <v>0.86</v>
       </c>
       <c r="BE9">
-        <v>0.86</v>
+        <v>0.87</v>
       </c>
       <c r="BF9">
         <v>0.87</v>
@@ -3127,7 +3099,7 @@
         <v>0.87</v>
       </c>
       <c r="BI9">
-        <v>0.87</v>
+        <v>0.88</v>
       </c>
       <c r="BJ9">
         <v>0.88</v>
@@ -3136,7 +3108,7 @@
         <v>0.88</v>
       </c>
       <c r="BL9">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="BM9">
         <v>0.89</v>
@@ -3148,7 +3120,7 @@
         <v>0.89</v>
       </c>
       <c r="BP9">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="BQ9">
         <v>0.9</v>
@@ -3163,7 +3135,7 @@
         <v>0.9</v>
       </c>
       <c r="BU9">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="BV9">
         <v>0.91</v>
@@ -3178,7 +3150,7 @@
         <v>0.91</v>
       </c>
       <c r="BZ9">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
       <c r="CA9">
         <v>0.92</v>
@@ -3193,27 +3165,24 @@
         <v>0.92</v>
       </c>
       <c r="CE9">
-        <v>0.92</v>
+        <v>0.93</v>
       </c>
       <c r="CF9">
         <v>0.93</v>
       </c>
-      <c r="CG9">
-        <v>0.93</v>
-      </c>
     </row>
-    <row r="10" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A10">
+        <v>28</v>
+      </c>
+      <c r="B10">
+        <v>12</v>
+      </c>
+      <c r="C10">
         <v>1</v>
       </c>
-      <c r="B10">
-        <v>28</v>
-      </c>
-      <c r="C10">
-        <v>12</v>
-      </c>
       <c r="D10">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="E10">
         <v>0.7</v>
@@ -3228,7 +3197,7 @@
         <v>0.7</v>
       </c>
       <c r="I10">
-        <v>0.7</v>
+        <v>0.71</v>
       </c>
       <c r="J10">
         <v>0.71</v>
@@ -3255,7 +3224,7 @@
         <v>0.71</v>
       </c>
       <c r="R10">
-        <v>0.71</v>
+        <v>0.72</v>
       </c>
       <c r="S10">
         <v>0.72</v>
@@ -3276,7 +3245,7 @@
         <v>0.72</v>
       </c>
       <c r="Y10">
-        <v>0.72</v>
+        <v>0.73</v>
       </c>
       <c r="Z10">
         <v>0.73</v>
@@ -3291,7 +3260,7 @@
         <v>0.73</v>
       </c>
       <c r="AD10">
-        <v>0.73</v>
+        <v>0.74</v>
       </c>
       <c r="AE10">
         <v>0.74</v>
@@ -3303,7 +3272,7 @@
         <v>0.74</v>
       </c>
       <c r="AH10">
-        <v>0.74</v>
+        <v>0.75</v>
       </c>
       <c r="AI10">
         <v>0.75</v>
@@ -3315,7 +3284,7 @@
         <v>0.75</v>
       </c>
       <c r="AL10">
-        <v>0.75</v>
+        <v>0.76</v>
       </c>
       <c r="AM10">
         <v>0.76</v>
@@ -3330,7 +3299,7 @@
         <v>0.76</v>
       </c>
       <c r="AQ10">
-        <v>0.76</v>
+        <v>0.77</v>
       </c>
       <c r="AR10">
         <v>0.77</v>
@@ -3339,31 +3308,31 @@
         <v>0.77</v>
       </c>
       <c r="AT10">
-        <v>0.77</v>
+        <v>0.78</v>
       </c>
       <c r="AU10">
-        <v>0.78</v>
+        <v>0.79</v>
       </c>
       <c r="AV10">
         <v>0.79</v>
       </c>
       <c r="AW10">
-        <v>0.79</v>
+        <v>0.8</v>
       </c>
       <c r="AX10">
         <v>0.8</v>
       </c>
       <c r="AY10">
-        <v>0.8</v>
+        <v>0.81</v>
       </c>
       <c r="AZ10">
-        <v>0.81</v>
+        <v>0.82</v>
       </c>
       <c r="BA10">
         <v>0.82</v>
       </c>
       <c r="BB10">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="BC10">
         <v>0.83</v>
@@ -3372,7 +3341,7 @@
         <v>0.83</v>
       </c>
       <c r="BE10">
-        <v>0.83</v>
+        <v>0.84</v>
       </c>
       <c r="BF10">
         <v>0.84</v>
@@ -3381,7 +3350,7 @@
         <v>0.84</v>
       </c>
       <c r="BH10">
-        <v>0.84</v>
+        <v>0.85</v>
       </c>
       <c r="BI10">
         <v>0.85</v>
@@ -3390,7 +3359,7 @@
         <v>0.85</v>
       </c>
       <c r="BK10">
-        <v>0.85</v>
+        <v>0.86</v>
       </c>
       <c r="BL10">
         <v>0.86</v>
@@ -3399,7 +3368,7 @@
         <v>0.86</v>
       </c>
       <c r="BN10">
-        <v>0.86</v>
+        <v>0.87</v>
       </c>
       <c r="BO10">
         <v>0.87</v>
@@ -3414,7 +3383,7 @@
         <v>0.87</v>
       </c>
       <c r="BS10">
-        <v>0.87</v>
+        <v>0.88</v>
       </c>
       <c r="BT10">
         <v>0.88</v>
@@ -3426,7 +3395,7 @@
         <v>0.88</v>
       </c>
       <c r="BW10">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="BX10">
         <v>0.89</v>
@@ -3438,7 +3407,7 @@
         <v>0.89</v>
       </c>
       <c r="CA10">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="CB10">
         <v>0.9</v>
@@ -3453,461 +3422,455 @@
         <v>0.9</v>
       </c>
       <c r="CF10">
-        <v>0.9</v>
-      </c>
-      <c r="CG10">
         <v>0.91</v>
       </c>
     </row>
-    <row r="11" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A11">
+        <v>29</v>
+      </c>
+      <c r="B11">
         <v>1</v>
-      </c>
-      <c r="B11">
-        <v>29</v>
       </c>
       <c r="C11">
         <v>1</v>
       </c>
       <c r="D11">
-        <v>1</v>
+        <v>2.1</v>
       </c>
       <c r="E11">
-        <v>2.1</v>
+        <v>2.11</v>
       </c>
       <c r="F11">
         <v>2.11</v>
       </c>
       <c r="G11">
-        <v>2.11</v>
+        <v>2.12</v>
       </c>
       <c r="H11">
-        <v>2.12</v>
+        <v>2.13</v>
       </c>
       <c r="I11">
         <v>2.13</v>
       </c>
       <c r="J11">
-        <v>2.13</v>
+        <v>2.14</v>
       </c>
       <c r="K11">
-        <v>2.14</v>
+        <v>2.15</v>
       </c>
       <c r="L11">
         <v>2.15</v>
       </c>
       <c r="M11">
-        <v>2.15</v>
+        <v>2.16</v>
       </c>
       <c r="N11">
-        <v>2.16</v>
+        <v>2.17</v>
       </c>
       <c r="O11">
         <v>2.17</v>
       </c>
       <c r="P11">
-        <v>2.17</v>
+        <v>2.1800000000000002</v>
       </c>
       <c r="Q11">
-        <v>2.1800000000000002</v>
+        <v>2.19</v>
       </c>
       <c r="R11">
         <v>2.19</v>
       </c>
       <c r="S11">
-        <v>2.19</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="T11">
-        <v>2.2000000000000002</v>
+        <v>2.21</v>
       </c>
       <c r="U11">
         <v>2.21</v>
       </c>
       <c r="V11">
-        <v>2.21</v>
+        <v>2.2200000000000002</v>
       </c>
       <c r="W11">
-        <v>2.2200000000000002</v>
+        <v>2.23</v>
       </c>
       <c r="X11">
-        <v>2.23</v>
+        <v>2.2400000000000002</v>
       </c>
       <c r="Y11">
-        <v>2.2400000000000002</v>
+        <v>2.25</v>
       </c>
       <c r="Z11">
-        <v>2.25</v>
+        <v>2.2599999999999998</v>
       </c>
       <c r="AA11">
-        <v>2.2599999999999998</v>
+        <v>2.2799999999999998</v>
       </c>
       <c r="AB11">
-        <v>2.2799999999999998</v>
+        <v>2.29</v>
       </c>
       <c r="AC11">
-        <v>2.29</v>
+        <v>2.31</v>
       </c>
       <c r="AD11">
-        <v>2.31</v>
+        <v>2.3199999999999998</v>
       </c>
       <c r="AE11">
-        <v>2.3199999999999998</v>
+        <v>2.33</v>
       </c>
       <c r="AF11">
-        <v>2.33</v>
+        <v>2.35</v>
       </c>
       <c r="AG11">
-        <v>2.35</v>
+        <v>2.36</v>
       </c>
       <c r="AH11">
-        <v>2.36</v>
+        <v>2.38</v>
       </c>
       <c r="AI11">
-        <v>2.38</v>
+        <v>2.39</v>
       </c>
       <c r="AJ11">
-        <v>2.39</v>
+        <v>2.4</v>
       </c>
       <c r="AK11">
-        <v>2.4</v>
+        <v>2.42</v>
       </c>
       <c r="AL11">
-        <v>2.42</v>
+        <v>2.4300000000000002</v>
       </c>
       <c r="AM11">
-        <v>2.4300000000000002</v>
+        <v>2.4500000000000002</v>
       </c>
       <c r="AN11">
-        <v>2.4500000000000002</v>
+        <v>2.46</v>
       </c>
       <c r="AO11">
-        <v>2.46</v>
+        <v>2.4700000000000002</v>
       </c>
       <c r="AP11">
-        <v>2.4700000000000002</v>
+        <v>2.4900000000000002</v>
       </c>
       <c r="AQ11">
-        <v>2.4900000000000002</v>
+        <v>2.5</v>
       </c>
       <c r="AR11">
-        <v>2.5</v>
+        <v>2.52</v>
       </c>
       <c r="AS11">
-        <v>2.52</v>
+        <v>2.5499999999999998</v>
       </c>
       <c r="AT11">
-        <v>2.5499999999999998</v>
+        <v>2.59</v>
       </c>
       <c r="AU11">
-        <v>2.59</v>
+        <v>2.63</v>
       </c>
       <c r="AV11">
-        <v>2.63</v>
+        <v>2.66</v>
       </c>
       <c r="AW11">
-        <v>2.66</v>
+        <v>2.7</v>
       </c>
       <c r="AX11">
-        <v>2.7</v>
+        <v>2.74</v>
       </c>
       <c r="AY11">
-        <v>2.74</v>
+        <v>2.77</v>
       </c>
       <c r="AZ11">
-        <v>2.77</v>
+        <v>2.81</v>
       </c>
       <c r="BA11">
-        <v>2.81</v>
+        <v>2.85</v>
       </c>
       <c r="BB11">
-        <v>2.85</v>
+        <v>2.88</v>
       </c>
       <c r="BC11">
-        <v>2.88</v>
+        <v>2.91</v>
       </c>
       <c r="BD11">
-        <v>2.91</v>
+        <v>2.93</v>
       </c>
       <c r="BE11">
-        <v>2.93</v>
+        <v>2.95</v>
       </c>
       <c r="BF11">
-        <v>2.95</v>
+        <v>2.98</v>
       </c>
       <c r="BG11">
-        <v>2.98</v>
+        <v>3</v>
       </c>
       <c r="BH11">
-        <v>3</v>
+        <v>3.02</v>
       </c>
       <c r="BI11">
-        <v>3.02</v>
+        <v>3.05</v>
       </c>
       <c r="BJ11">
-        <v>3.05</v>
+        <v>3.07</v>
       </c>
       <c r="BK11">
-        <v>3.07</v>
+        <v>3.09</v>
       </c>
       <c r="BL11">
-        <v>3.09</v>
+        <v>3.12</v>
       </c>
       <c r="BM11">
-        <v>3.12</v>
+        <v>3.13</v>
       </c>
       <c r="BN11">
-        <v>3.13</v>
+        <v>3.15</v>
       </c>
       <c r="BO11">
-        <v>3.15</v>
+        <v>3.16</v>
       </c>
       <c r="BP11">
-        <v>3.16</v>
+        <v>3.18</v>
       </c>
       <c r="BQ11">
-        <v>3.18</v>
+        <v>3.2</v>
       </c>
       <c r="BR11">
-        <v>3.2</v>
+        <v>3.21</v>
       </c>
       <c r="BS11">
-        <v>3.21</v>
+        <v>3.23</v>
       </c>
       <c r="BT11">
-        <v>3.23</v>
+        <v>3.24</v>
       </c>
       <c r="BU11">
-        <v>3.24</v>
+        <v>3.26</v>
       </c>
       <c r="BV11">
-        <v>3.26</v>
+        <v>3.28</v>
       </c>
       <c r="BW11">
-        <v>3.28</v>
+        <v>3.29</v>
       </c>
       <c r="BX11">
-        <v>3.29</v>
+        <v>3.31</v>
       </c>
       <c r="BY11">
-        <v>3.31</v>
+        <v>3.32</v>
       </c>
       <c r="BZ11">
-        <v>3.32</v>
+        <v>3.34</v>
       </c>
       <c r="CA11">
-        <v>3.34</v>
+        <v>3.36</v>
       </c>
       <c r="CB11">
-        <v>3.36</v>
+        <v>3.37</v>
       </c>
       <c r="CC11">
-        <v>3.37</v>
+        <v>3.39</v>
       </c>
       <c r="CD11">
-        <v>3.39</v>
+        <v>3.4</v>
       </c>
       <c r="CE11">
-        <v>3.4</v>
+        <v>3.42</v>
       </c>
       <c r="CF11">
-        <v>3.42</v>
-      </c>
-      <c r="CG11">
         <v>3.44</v>
       </c>
     </row>
-    <row r="12" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A12">
+        <v>29</v>
+      </c>
+      <c r="B12">
+        <v>15</v>
+      </c>
+      <c r="C12">
         <v>1</v>
       </c>
-      <c r="B12">
-        <v>29</v>
-      </c>
-      <c r="C12">
-        <v>15</v>
-      </c>
       <c r="D12">
-        <v>1</v>
+        <v>1.91</v>
       </c>
       <c r="E12">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="F12">
         <v>1.9</v>
       </c>
       <c r="G12">
-        <v>1.9</v>
+        <v>1.89</v>
       </c>
       <c r="H12">
         <v>1.89</v>
       </c>
       <c r="I12">
-        <v>1.89</v>
+        <v>1.88</v>
       </c>
       <c r="J12">
         <v>1.88</v>
       </c>
       <c r="K12">
-        <v>1.88</v>
+        <v>1.87</v>
       </c>
       <c r="L12">
         <v>1.87</v>
       </c>
       <c r="M12">
-        <v>1.87</v>
+        <v>1.86</v>
       </c>
       <c r="N12">
         <v>1.86</v>
       </c>
       <c r="O12">
-        <v>1.86</v>
+        <v>1.85</v>
       </c>
       <c r="P12">
         <v>1.85</v>
       </c>
       <c r="Q12">
-        <v>1.85</v>
+        <v>1.84</v>
       </c>
       <c r="R12">
         <v>1.84</v>
       </c>
       <c r="S12">
-        <v>1.84</v>
+        <v>1.83</v>
       </c>
       <c r="T12">
         <v>1.83</v>
       </c>
       <c r="U12">
-        <v>1.83</v>
+        <v>1.82</v>
       </c>
       <c r="V12">
         <v>1.82</v>
       </c>
       <c r="W12">
-        <v>1.82</v>
+        <v>1.81</v>
       </c>
       <c r="X12">
         <v>1.81</v>
       </c>
       <c r="Y12">
-        <v>1.81</v>
+        <v>1.8</v>
       </c>
       <c r="Z12">
-        <v>1.8</v>
+        <v>1.79</v>
       </c>
       <c r="AA12">
-        <v>1.79</v>
+        <v>1.78</v>
       </c>
       <c r="AB12">
-        <v>1.78</v>
+        <v>1.77</v>
       </c>
       <c r="AC12">
         <v>1.77</v>
       </c>
       <c r="AD12">
-        <v>1.77</v>
+        <v>1.76</v>
       </c>
       <c r="AE12">
-        <v>1.76</v>
+        <v>1.75</v>
       </c>
       <c r="AF12">
-        <v>1.75</v>
+        <v>1.74</v>
       </c>
       <c r="AG12">
-        <v>1.74</v>
+        <v>1.73</v>
       </c>
       <c r="AH12">
         <v>1.73</v>
       </c>
       <c r="AI12">
-        <v>1.73</v>
+        <v>1.72</v>
       </c>
       <c r="AJ12">
-        <v>1.72</v>
+        <v>1.71</v>
       </c>
       <c r="AK12">
         <v>1.71</v>
       </c>
       <c r="AL12">
-        <v>1.71</v>
+        <v>1.7</v>
       </c>
       <c r="AM12">
-        <v>1.7</v>
+        <v>1.69</v>
       </c>
       <c r="AN12">
         <v>1.69</v>
       </c>
       <c r="AO12">
-        <v>1.69</v>
+        <v>1.68</v>
       </c>
       <c r="AP12">
-        <v>1.68</v>
+        <v>1.67</v>
       </c>
       <c r="AQ12">
         <v>1.67</v>
       </c>
       <c r="AR12">
-        <v>1.67</v>
+        <v>1.66</v>
       </c>
       <c r="AS12">
-        <v>1.66</v>
+        <v>1.64</v>
       </c>
       <c r="AT12">
-        <v>1.64</v>
+        <v>1.63</v>
       </c>
       <c r="AU12">
-        <v>1.63</v>
+        <v>1.62</v>
       </c>
       <c r="AV12">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="AW12">
-        <v>1.6</v>
+        <v>1.59</v>
       </c>
       <c r="AX12">
-        <v>1.59</v>
+        <v>1.58</v>
       </c>
       <c r="AY12">
-        <v>1.58</v>
+        <v>1.56</v>
       </c>
       <c r="AZ12">
-        <v>1.56</v>
+        <v>1.55</v>
       </c>
       <c r="BA12">
-        <v>1.55</v>
+        <v>1.54</v>
       </c>
       <c r="BB12">
-        <v>1.54</v>
+        <v>1.53</v>
       </c>
       <c r="BC12">
-        <v>1.53</v>
+        <v>1.52</v>
       </c>
       <c r="BD12">
         <v>1.52</v>
       </c>
       <c r="BE12">
-        <v>1.52</v>
+        <v>1.51</v>
       </c>
       <c r="BF12">
         <v>1.51</v>
       </c>
       <c r="BG12">
-        <v>1.51</v>
+        <v>1.5</v>
       </c>
       <c r="BH12">
-        <v>1.5</v>
+        <v>1.49</v>
       </c>
       <c r="BI12">
         <v>1.49</v>
       </c>
       <c r="BJ12">
-        <v>1.49</v>
+        <v>1.48</v>
       </c>
       <c r="BK12">
         <v>1.48</v>
       </c>
       <c r="BL12">
-        <v>1.48</v>
+        <v>1.47</v>
       </c>
       <c r="BM12">
         <v>1.47</v>
@@ -3916,7 +3879,7 @@
         <v>1.47</v>
       </c>
       <c r="BO12">
-        <v>1.47</v>
+        <v>1.46</v>
       </c>
       <c r="BP12">
         <v>1.46</v>
@@ -3925,7 +3888,7 @@
         <v>1.46</v>
       </c>
       <c r="BR12">
-        <v>1.46</v>
+        <v>1.45</v>
       </c>
       <c r="BS12">
         <v>1.45</v>
@@ -3934,7 +3897,7 @@
         <v>1.45</v>
       </c>
       <c r="BU12">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="BV12">
         <v>1.44</v>
@@ -3943,7 +3906,7 @@
         <v>1.44</v>
       </c>
       <c r="BX12">
-        <v>1.44</v>
+        <v>1.43</v>
       </c>
       <c r="BY12">
         <v>1.43</v>
@@ -3952,7 +3915,7 @@
         <v>1.43</v>
       </c>
       <c r="CA12">
-        <v>1.43</v>
+        <v>1.42</v>
       </c>
       <c r="CB12">
         <v>1.42</v>
@@ -3964,284 +3927,278 @@
         <v>1.42</v>
       </c>
       <c r="CE12">
-        <v>1.42</v>
+        <v>1.41</v>
       </c>
       <c r="CF12">
         <v>1.41</v>
       </c>
-      <c r="CG12">
-        <v>1.41</v>
-      </c>
     </row>
-    <row r="13" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A13">
+        <v>210</v>
+      </c>
+      <c r="B13">
         <v>1</v>
-      </c>
-      <c r="B13">
-        <v>210</v>
       </c>
       <c r="C13">
         <v>1</v>
       </c>
       <c r="D13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E13">
-        <v>3</v>
+        <v>3.01</v>
       </c>
       <c r="F13">
         <v>3.01</v>
       </c>
       <c r="G13">
-        <v>3.01</v>
+        <v>3.02</v>
       </c>
       <c r="H13">
         <v>3.02</v>
       </c>
       <c r="I13">
-        <v>3.02</v>
+        <v>3.03</v>
       </c>
       <c r="J13">
         <v>3.03</v>
       </c>
       <c r="K13">
-        <v>3.03</v>
+        <v>3.04</v>
       </c>
       <c r="L13">
         <v>3.04</v>
       </c>
       <c r="M13">
-        <v>3.04</v>
+        <v>3.05</v>
       </c>
       <c r="N13">
         <v>3.05</v>
       </c>
       <c r="O13">
-        <v>3.05</v>
+        <v>3.06</v>
       </c>
       <c r="P13">
         <v>3.06</v>
       </c>
       <c r="Q13">
-        <v>3.06</v>
+        <v>3.07</v>
       </c>
       <c r="R13">
         <v>3.07</v>
       </c>
       <c r="S13">
-        <v>3.07</v>
+        <v>3.08</v>
       </c>
       <c r="T13">
         <v>3.08</v>
       </c>
       <c r="U13">
-        <v>3.08</v>
+        <v>3.09</v>
       </c>
       <c r="V13">
         <v>3.09</v>
       </c>
       <c r="W13">
-        <v>3.09</v>
+        <v>3.1</v>
       </c>
       <c r="X13">
         <v>3.1</v>
       </c>
       <c r="Y13">
-        <v>3.1</v>
+        <v>3.11</v>
       </c>
       <c r="Z13">
-        <v>3.11</v>
+        <v>3.12</v>
       </c>
       <c r="AA13">
-        <v>3.12</v>
+        <v>3.13</v>
       </c>
       <c r="AB13">
-        <v>3.13</v>
+        <v>3.14</v>
       </c>
       <c r="AC13">
-        <v>3.14</v>
+        <v>3.15</v>
       </c>
       <c r="AD13">
-        <v>3.15</v>
+        <v>3.16</v>
       </c>
       <c r="AE13">
-        <v>3.16</v>
+        <v>3.17</v>
       </c>
       <c r="AF13">
-        <v>3.17</v>
+        <v>3.18</v>
       </c>
       <c r="AG13">
-        <v>3.18</v>
+        <v>3.19</v>
       </c>
       <c r="AH13">
-        <v>3.19</v>
+        <v>3.2</v>
       </c>
       <c r="AI13">
-        <v>3.2</v>
+        <v>3.21</v>
       </c>
       <c r="AJ13">
-        <v>3.21</v>
+        <v>3.22</v>
       </c>
       <c r="AK13">
-        <v>3.22</v>
+        <v>3.23</v>
       </c>
       <c r="AL13">
-        <v>3.23</v>
+        <v>3.24</v>
       </c>
       <c r="AM13">
-        <v>3.24</v>
+        <v>3.25</v>
       </c>
       <c r="AN13">
-        <v>3.25</v>
+        <v>3.26</v>
       </c>
       <c r="AO13">
-        <v>3.26</v>
+        <v>3.27</v>
       </c>
       <c r="AP13">
-        <v>3.27</v>
+        <v>3.28</v>
       </c>
       <c r="AQ13">
-        <v>3.28</v>
+        <v>3.29</v>
       </c>
       <c r="AR13">
-        <v>3.29</v>
+        <v>3.3</v>
       </c>
       <c r="AS13">
-        <v>3.3</v>
+        <v>3.33</v>
       </c>
       <c r="AT13">
-        <v>3.33</v>
+        <v>3.35</v>
       </c>
       <c r="AU13">
-        <v>3.35</v>
+        <v>3.38</v>
       </c>
       <c r="AV13">
-        <v>3.38</v>
+        <v>3.4</v>
       </c>
       <c r="AW13">
-        <v>3.4</v>
+        <v>3.43</v>
       </c>
       <c r="AX13">
-        <v>3.43</v>
+        <v>3.45</v>
       </c>
       <c r="AY13">
-        <v>3.45</v>
+        <v>3.48</v>
       </c>
       <c r="AZ13">
-        <v>3.48</v>
+        <v>3.5</v>
       </c>
       <c r="BA13">
-        <v>3.5</v>
+        <v>3.53</v>
       </c>
       <c r="BB13">
-        <v>3.53</v>
+        <v>3.55</v>
       </c>
       <c r="BC13">
-        <v>3.55</v>
+        <v>3.57</v>
       </c>
       <c r="BD13">
-        <v>3.57</v>
+        <v>3.58</v>
       </c>
       <c r="BE13">
-        <v>3.58</v>
+        <v>3.6</v>
       </c>
       <c r="BF13">
-        <v>3.6</v>
+        <v>3.61</v>
       </c>
       <c r="BG13">
-        <v>3.61</v>
+        <v>3.63</v>
       </c>
       <c r="BH13">
-        <v>3.63</v>
+        <v>3.64</v>
       </c>
       <c r="BI13">
-        <v>3.64</v>
+        <v>3.66</v>
       </c>
       <c r="BJ13">
-        <v>3.66</v>
+        <v>3.67</v>
       </c>
       <c r="BK13">
-        <v>3.67</v>
+        <v>3.69</v>
       </c>
       <c r="BL13">
-        <v>3.69</v>
+        <v>3.7</v>
       </c>
       <c r="BM13">
-        <v>3.7</v>
+        <v>3.71</v>
       </c>
       <c r="BN13">
-        <v>3.71</v>
+        <v>3.72</v>
       </c>
       <c r="BO13">
-        <v>3.72</v>
+        <v>3.73</v>
       </c>
       <c r="BP13">
-        <v>3.73</v>
+        <v>3.74</v>
       </c>
       <c r="BQ13">
-        <v>3.74</v>
+        <v>3.75</v>
       </c>
       <c r="BR13">
-        <v>3.75</v>
+        <v>3.76</v>
       </c>
       <c r="BS13">
-        <v>3.76</v>
+        <v>3.77</v>
       </c>
       <c r="BT13">
-        <v>3.77</v>
+        <v>3.78</v>
       </c>
       <c r="BU13">
-        <v>3.78</v>
+        <v>3.79</v>
       </c>
       <c r="BV13">
-        <v>3.79</v>
+        <v>3.8</v>
       </c>
       <c r="BW13">
-        <v>3.8</v>
+        <v>3.81</v>
       </c>
       <c r="BX13">
-        <v>3.81</v>
+        <v>3.82</v>
       </c>
       <c r="BY13">
-        <v>3.82</v>
+        <v>3.83</v>
       </c>
       <c r="BZ13">
-        <v>3.83</v>
+        <v>3.84</v>
       </c>
       <c r="CA13">
-        <v>3.84</v>
+        <v>3.85</v>
       </c>
       <c r="CB13">
-        <v>3.85</v>
+        <v>3.86</v>
       </c>
       <c r="CC13">
-        <v>3.86</v>
+        <v>3.87</v>
       </c>
       <c r="CD13">
-        <v>3.87</v>
+        <v>3.88</v>
       </c>
       <c r="CE13">
-        <v>3.88</v>
+        <v>3.89</v>
       </c>
       <c r="CF13">
-        <v>3.89</v>
-      </c>
-      <c r="CG13">
         <v>3.9</v>
       </c>
     </row>
-    <row r="14" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A14">
+        <v>210</v>
+      </c>
+      <c r="B14">
+        <v>15</v>
+      </c>
+      <c r="C14">
         <v>1</v>
       </c>
-      <c r="B14">
-        <v>210</v>
-      </c>
-      <c r="C14">
-        <v>15</v>
-      </c>
       <c r="D14">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="E14">
         <v>1.5</v>
@@ -4256,7 +4213,7 @@
         <v>1.5</v>
       </c>
       <c r="I14">
-        <v>1.5</v>
+        <v>1.49</v>
       </c>
       <c r="J14">
         <v>1.49</v>
@@ -4280,7 +4237,7 @@
         <v>1.49</v>
       </c>
       <c r="Q14">
-        <v>1.49</v>
+        <v>1.48</v>
       </c>
       <c r="R14">
         <v>1.48</v>
@@ -4304,7 +4261,7 @@
         <v>1.48</v>
       </c>
       <c r="Y14">
-        <v>1.48</v>
+        <v>1.47</v>
       </c>
       <c r="Z14">
         <v>1.47</v>
@@ -4319,7 +4276,7 @@
         <v>1.47</v>
       </c>
       <c r="AD14">
-        <v>1.47</v>
+        <v>1.46</v>
       </c>
       <c r="AE14">
         <v>1.46</v>
@@ -4331,7 +4288,7 @@
         <v>1.46</v>
       </c>
       <c r="AH14">
-        <v>1.46</v>
+        <v>1.45</v>
       </c>
       <c r="AI14">
         <v>1.45</v>
@@ -4346,7 +4303,7 @@
         <v>1.45</v>
       </c>
       <c r="AM14">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="AN14">
         <v>1.44</v>
@@ -4361,7 +4318,7 @@
         <v>1.44</v>
       </c>
       <c r="AR14">
-        <v>1.44</v>
+        <v>1.43</v>
       </c>
       <c r="AS14">
         <v>1.43</v>
@@ -4370,19 +4327,19 @@
         <v>1.43</v>
       </c>
       <c r="AU14">
-        <v>1.43</v>
+        <v>1.42</v>
       </c>
       <c r="AV14">
         <v>1.42</v>
       </c>
       <c r="AW14">
-        <v>1.42</v>
+        <v>1.41</v>
       </c>
       <c r="AX14">
         <v>1.41</v>
       </c>
       <c r="AY14">
-        <v>1.41</v>
+        <v>1.4</v>
       </c>
       <c r="AZ14">
         <v>1.4</v>
@@ -4391,7 +4348,7 @@
         <v>1.4</v>
       </c>
       <c r="BB14">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="BC14">
         <v>1.39</v>
@@ -4403,7 +4360,7 @@
         <v>1.39</v>
       </c>
       <c r="BF14">
-        <v>1.39</v>
+        <v>1.38</v>
       </c>
       <c r="BG14">
         <v>1.38</v>
@@ -4415,7 +4372,7 @@
         <v>1.38</v>
       </c>
       <c r="BJ14">
-        <v>1.38</v>
+        <v>1.37</v>
       </c>
       <c r="BK14">
         <v>1.37</v>
@@ -4433,7 +4390,7 @@
         <v>1.37</v>
       </c>
       <c r="BP14">
-        <v>1.37</v>
+        <v>1.36</v>
       </c>
       <c r="BQ14">
         <v>1.36</v>
@@ -4457,7 +4414,7 @@
         <v>1.36</v>
       </c>
       <c r="BX14">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="BY14">
         <v>1.35</v>
@@ -4481,281 +4438,275 @@
         <v>1.35</v>
       </c>
       <c r="CF14">
-        <v>1.35</v>
-      </c>
-      <c r="CG14">
         <v>1.34</v>
       </c>
     </row>
-    <row r="15" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A15">
+        <v>211</v>
+      </c>
+      <c r="B15">
         <v>1</v>
-      </c>
-      <c r="B15">
-        <v>211</v>
       </c>
       <c r="C15">
         <v>1</v>
       </c>
       <c r="D15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E15">
-        <v>3</v>
+        <v>3.01</v>
       </c>
       <c r="F15">
         <v>3.01</v>
       </c>
       <c r="G15">
-        <v>3.01</v>
+        <v>3.02</v>
       </c>
       <c r="H15">
         <v>3.02</v>
       </c>
       <c r="I15">
-        <v>3.02</v>
+        <v>3.03</v>
       </c>
       <c r="J15">
         <v>3.03</v>
       </c>
       <c r="K15">
-        <v>3.03</v>
+        <v>3.04</v>
       </c>
       <c r="L15">
         <v>3.04</v>
       </c>
       <c r="M15">
-        <v>3.04</v>
+        <v>3.05</v>
       </c>
       <c r="N15">
         <v>3.05</v>
       </c>
       <c r="O15">
-        <v>3.05</v>
+        <v>3.06</v>
       </c>
       <c r="P15">
         <v>3.06</v>
       </c>
       <c r="Q15">
-        <v>3.06</v>
+        <v>3.07</v>
       </c>
       <c r="R15">
         <v>3.07</v>
       </c>
       <c r="S15">
-        <v>3.07</v>
+        <v>3.08</v>
       </c>
       <c r="T15">
         <v>3.08</v>
       </c>
       <c r="U15">
-        <v>3.08</v>
+        <v>3.09</v>
       </c>
       <c r="V15">
         <v>3.09</v>
       </c>
       <c r="W15">
-        <v>3.09</v>
+        <v>3.1</v>
       </c>
       <c r="X15">
         <v>3.1</v>
       </c>
       <c r="Y15">
-        <v>3.1</v>
+        <v>3.11</v>
       </c>
       <c r="Z15">
-        <v>3.11</v>
+        <v>3.12</v>
       </c>
       <c r="AA15">
-        <v>3.12</v>
+        <v>3.13</v>
       </c>
       <c r="AB15">
-        <v>3.13</v>
+        <v>3.14</v>
       </c>
       <c r="AC15">
-        <v>3.14</v>
+        <v>3.15</v>
       </c>
       <c r="AD15">
-        <v>3.15</v>
+        <v>3.16</v>
       </c>
       <c r="AE15">
-        <v>3.16</v>
+        <v>3.17</v>
       </c>
       <c r="AF15">
-        <v>3.17</v>
+        <v>3.18</v>
       </c>
       <c r="AG15">
-        <v>3.18</v>
+        <v>3.19</v>
       </c>
       <c r="AH15">
-        <v>3.19</v>
+        <v>3.2</v>
       </c>
       <c r="AI15">
-        <v>3.2</v>
+        <v>3.21</v>
       </c>
       <c r="AJ15">
-        <v>3.21</v>
+        <v>3.22</v>
       </c>
       <c r="AK15">
-        <v>3.22</v>
+        <v>3.23</v>
       </c>
       <c r="AL15">
-        <v>3.23</v>
+        <v>3.24</v>
       </c>
       <c r="AM15">
-        <v>3.24</v>
+        <v>3.25</v>
       </c>
       <c r="AN15">
-        <v>3.25</v>
+        <v>3.26</v>
       </c>
       <c r="AO15">
-        <v>3.26</v>
+        <v>3.27</v>
       </c>
       <c r="AP15">
-        <v>3.27</v>
+        <v>3.28</v>
       </c>
       <c r="AQ15">
-        <v>3.28</v>
+        <v>3.29</v>
       </c>
       <c r="AR15">
-        <v>3.29</v>
+        <v>3.3</v>
       </c>
       <c r="AS15">
-        <v>3.3</v>
+        <v>3.33</v>
       </c>
       <c r="AT15">
-        <v>3.33</v>
+        <v>3.35</v>
       </c>
       <c r="AU15">
-        <v>3.35</v>
+        <v>3.38</v>
       </c>
       <c r="AV15">
-        <v>3.38</v>
+        <v>3.4</v>
       </c>
       <c r="AW15">
-        <v>3.4</v>
+        <v>3.43</v>
       </c>
       <c r="AX15">
-        <v>3.43</v>
+        <v>3.45</v>
       </c>
       <c r="AY15">
-        <v>3.45</v>
+        <v>3.48</v>
       </c>
       <c r="AZ15">
-        <v>3.48</v>
+        <v>3.5</v>
       </c>
       <c r="BA15">
-        <v>3.5</v>
+        <v>3.53</v>
       </c>
       <c r="BB15">
-        <v>3.53</v>
+        <v>3.55</v>
       </c>
       <c r="BC15">
-        <v>3.55</v>
+        <v>3.57</v>
       </c>
       <c r="BD15">
-        <v>3.57</v>
+        <v>3.58</v>
       </c>
       <c r="BE15">
-        <v>3.58</v>
+        <v>3.6</v>
       </c>
       <c r="BF15">
-        <v>3.6</v>
+        <v>3.61</v>
       </c>
       <c r="BG15">
-        <v>3.61</v>
+        <v>3.63</v>
       </c>
       <c r="BH15">
-        <v>3.63</v>
+        <v>3.64</v>
       </c>
       <c r="BI15">
-        <v>3.64</v>
+        <v>3.66</v>
       </c>
       <c r="BJ15">
-        <v>3.66</v>
+        <v>3.67</v>
       </c>
       <c r="BK15">
-        <v>3.67</v>
+        <v>3.69</v>
       </c>
       <c r="BL15">
-        <v>3.69</v>
+        <v>3.7</v>
       </c>
       <c r="BM15">
-        <v>3.7</v>
+        <v>3.71</v>
       </c>
       <c r="BN15">
-        <v>3.71</v>
+        <v>3.72</v>
       </c>
       <c r="BO15">
-        <v>3.72</v>
+        <v>3.73</v>
       </c>
       <c r="BP15">
-        <v>3.73</v>
+        <v>3.74</v>
       </c>
       <c r="BQ15">
-        <v>3.74</v>
+        <v>3.75</v>
       </c>
       <c r="BR15">
-        <v>3.75</v>
+        <v>3.76</v>
       </c>
       <c r="BS15">
-        <v>3.76</v>
+        <v>3.77</v>
       </c>
       <c r="BT15">
-        <v>3.77</v>
+        <v>3.78</v>
       </c>
       <c r="BU15">
-        <v>3.78</v>
+        <v>3.79</v>
       </c>
       <c r="BV15">
-        <v>3.79</v>
+        <v>3.8</v>
       </c>
       <c r="BW15">
-        <v>3.8</v>
+        <v>3.81</v>
       </c>
       <c r="BX15">
-        <v>3.81</v>
+        <v>3.82</v>
       </c>
       <c r="BY15">
-        <v>3.82</v>
+        <v>3.83</v>
       </c>
       <c r="BZ15">
-        <v>3.83</v>
+        <v>3.84</v>
       </c>
       <c r="CA15">
-        <v>3.84</v>
+        <v>3.85</v>
       </c>
       <c r="CB15">
-        <v>3.85</v>
+        <v>3.86</v>
       </c>
       <c r="CC15">
-        <v>3.86</v>
+        <v>3.87</v>
       </c>
       <c r="CD15">
-        <v>3.87</v>
+        <v>3.88</v>
       </c>
       <c r="CE15">
-        <v>3.88</v>
+        <v>3.89</v>
       </c>
       <c r="CF15">
-        <v>3.89</v>
-      </c>
-      <c r="CG15">
         <v>3.9</v>
       </c>
     </row>
-    <row r="16" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A16">
+        <v>211</v>
+      </c>
+      <c r="B16">
+        <v>15</v>
+      </c>
+      <c r="C16">
         <v>1</v>
       </c>
-      <c r="B16">
-        <v>211</v>
-      </c>
-      <c r="C16">
-        <v>15</v>
-      </c>
       <c r="D16">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="E16">
         <v>1.5</v>
@@ -4770,7 +4721,7 @@
         <v>1.5</v>
       </c>
       <c r="I16">
-        <v>1.5</v>
+        <v>1.49</v>
       </c>
       <c r="J16">
         <v>1.49</v>
@@ -4794,7 +4745,7 @@
         <v>1.49</v>
       </c>
       <c r="Q16">
-        <v>1.49</v>
+        <v>1.48</v>
       </c>
       <c r="R16">
         <v>1.48</v>
@@ -4818,7 +4769,7 @@
         <v>1.48</v>
       </c>
       <c r="Y16">
-        <v>1.48</v>
+        <v>1.47</v>
       </c>
       <c r="Z16">
         <v>1.47</v>
@@ -4833,7 +4784,7 @@
         <v>1.47</v>
       </c>
       <c r="AD16">
-        <v>1.47</v>
+        <v>1.46</v>
       </c>
       <c r="AE16">
         <v>1.46</v>
@@ -4845,7 +4796,7 @@
         <v>1.46</v>
       </c>
       <c r="AH16">
-        <v>1.46</v>
+        <v>1.45</v>
       </c>
       <c r="AI16">
         <v>1.45</v>
@@ -4860,7 +4811,7 @@
         <v>1.45</v>
       </c>
       <c r="AM16">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="AN16">
         <v>1.44</v>
@@ -4875,7 +4826,7 @@
         <v>1.44</v>
       </c>
       <c r="AR16">
-        <v>1.44</v>
+        <v>1.43</v>
       </c>
       <c r="AS16">
         <v>1.43</v>
@@ -4884,19 +4835,19 @@
         <v>1.43</v>
       </c>
       <c r="AU16">
-        <v>1.43</v>
+        <v>1.42</v>
       </c>
       <c r="AV16">
         <v>1.42</v>
       </c>
       <c r="AW16">
-        <v>1.42</v>
+        <v>1.41</v>
       </c>
       <c r="AX16">
         <v>1.41</v>
       </c>
       <c r="AY16">
-        <v>1.41</v>
+        <v>1.4</v>
       </c>
       <c r="AZ16">
         <v>1.4</v>
@@ -4905,7 +4856,7 @@
         <v>1.4</v>
       </c>
       <c r="BB16">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="BC16">
         <v>1.39</v>
@@ -4917,7 +4868,7 @@
         <v>1.39</v>
       </c>
       <c r="BF16">
-        <v>1.39</v>
+        <v>1.38</v>
       </c>
       <c r="BG16">
         <v>1.38</v>
@@ -4929,7 +4880,7 @@
         <v>1.38</v>
       </c>
       <c r="BJ16">
-        <v>1.38</v>
+        <v>1.37</v>
       </c>
       <c r="BK16">
         <v>1.37</v>
@@ -4947,7 +4898,7 @@
         <v>1.37</v>
       </c>
       <c r="BP16">
-        <v>1.37</v>
+        <v>1.36</v>
       </c>
       <c r="BQ16">
         <v>1.36</v>
@@ -4971,7 +4922,7 @@
         <v>1.36</v>
       </c>
       <c r="BX16">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="BY16">
         <v>1.35</v>
@@ -4995,281 +4946,275 @@
         <v>1.35</v>
       </c>
       <c r="CF16">
-        <v>1.35</v>
-      </c>
-      <c r="CG16">
         <v>1.34</v>
       </c>
     </row>
-    <row r="17" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A17">
+        <v>212</v>
+      </c>
+      <c r="B17">
         <v>1</v>
-      </c>
-      <c r="B17">
-        <v>212</v>
       </c>
       <c r="C17">
         <v>1</v>
       </c>
       <c r="D17">
+        <v>0.98</v>
+      </c>
+      <c r="E17">
+        <v>0.98</v>
+      </c>
+      <c r="F17">
+        <v>0.98</v>
+      </c>
+      <c r="G17">
+        <v>0.98</v>
+      </c>
+      <c r="H17">
+        <v>0.98</v>
+      </c>
+      <c r="I17">
+        <v>0.98</v>
+      </c>
+      <c r="J17">
+        <v>0.98</v>
+      </c>
+      <c r="K17">
+        <v>0.98</v>
+      </c>
+      <c r="L17">
+        <v>0.98</v>
+      </c>
+      <c r="M17">
+        <v>0.98</v>
+      </c>
+      <c r="N17">
+        <v>0.98</v>
+      </c>
+      <c r="O17">
+        <v>0.98</v>
+      </c>
+      <c r="P17">
+        <v>0.98</v>
+      </c>
+      <c r="Q17">
+        <v>0.98</v>
+      </c>
+      <c r="R17">
+        <v>0.98</v>
+      </c>
+      <c r="S17">
+        <v>0.98</v>
+      </c>
+      <c r="T17">
+        <v>0.98</v>
+      </c>
+      <c r="U17">
+        <v>0.98</v>
+      </c>
+      <c r="V17">
+        <v>0.98</v>
+      </c>
+      <c r="W17">
+        <v>0.98</v>
+      </c>
+      <c r="X17">
+        <v>0.98</v>
+      </c>
+      <c r="Y17">
+        <v>0.98</v>
+      </c>
+      <c r="Z17">
+        <v>0.98</v>
+      </c>
+      <c r="AA17">
+        <v>0.98</v>
+      </c>
+      <c r="AB17">
+        <v>0.98</v>
+      </c>
+      <c r="AC17">
+        <v>0.98</v>
+      </c>
+      <c r="AD17">
+        <v>0.98</v>
+      </c>
+      <c r="AE17">
+        <v>0.98</v>
+      </c>
+      <c r="AF17">
+        <v>0.98</v>
+      </c>
+      <c r="AG17">
+        <v>0.98</v>
+      </c>
+      <c r="AH17">
+        <v>0.98</v>
+      </c>
+      <c r="AI17">
+        <v>0.98</v>
+      </c>
+      <c r="AJ17">
+        <v>0.98</v>
+      </c>
+      <c r="AK17">
+        <v>0.98</v>
+      </c>
+      <c r="AL17">
+        <v>0.98</v>
+      </c>
+      <c r="AM17">
+        <v>0.98</v>
+      </c>
+      <c r="AN17">
+        <v>0.98</v>
+      </c>
+      <c r="AO17">
+        <v>0.98</v>
+      </c>
+      <c r="AP17">
+        <v>0.98</v>
+      </c>
+      <c r="AQ17">
+        <v>0.98</v>
+      </c>
+      <c r="AR17">
+        <v>0.98</v>
+      </c>
+      <c r="AS17">
+        <v>0.98</v>
+      </c>
+      <c r="AT17">
+        <v>0.98</v>
+      </c>
+      <c r="AU17">
+        <v>0.98</v>
+      </c>
+      <c r="AV17">
+        <v>0.98</v>
+      </c>
+      <c r="AW17">
+        <v>0.98</v>
+      </c>
+      <c r="AX17">
+        <v>0.98</v>
+      </c>
+      <c r="AY17">
+        <v>0.98</v>
+      </c>
+      <c r="AZ17">
+        <v>0.98</v>
+      </c>
+      <c r="BA17">
+        <v>0.98</v>
+      </c>
+      <c r="BB17">
+        <v>0.98</v>
+      </c>
+      <c r="BC17">
+        <v>0.98</v>
+      </c>
+      <c r="BD17">
+        <v>0.98</v>
+      </c>
+      <c r="BE17">
+        <v>0.98</v>
+      </c>
+      <c r="BF17">
+        <v>0.98</v>
+      </c>
+      <c r="BG17">
+        <v>0.98</v>
+      </c>
+      <c r="BH17">
+        <v>0.98</v>
+      </c>
+      <c r="BI17">
+        <v>0.98</v>
+      </c>
+      <c r="BJ17">
+        <v>0.98</v>
+      </c>
+      <c r="BK17">
+        <v>0.98</v>
+      </c>
+      <c r="BL17">
+        <v>0.98</v>
+      </c>
+      <c r="BM17">
+        <v>0.98</v>
+      </c>
+      <c r="BN17">
+        <v>0.98</v>
+      </c>
+      <c r="BO17">
+        <v>0.98</v>
+      </c>
+      <c r="BP17">
+        <v>0.98</v>
+      </c>
+      <c r="BQ17">
+        <v>0.98</v>
+      </c>
+      <c r="BR17">
+        <v>0.98</v>
+      </c>
+      <c r="BS17">
+        <v>0.98</v>
+      </c>
+      <c r="BT17">
+        <v>0.98</v>
+      </c>
+      <c r="BU17">
+        <v>0.98</v>
+      </c>
+      <c r="BV17">
+        <v>0.98</v>
+      </c>
+      <c r="BW17">
+        <v>0.98</v>
+      </c>
+      <c r="BX17">
+        <v>0.98</v>
+      </c>
+      <c r="BY17">
+        <v>0.98</v>
+      </c>
+      <c r="BZ17">
+        <v>0.98</v>
+      </c>
+      <c r="CA17">
+        <v>0.98</v>
+      </c>
+      <c r="CB17">
+        <v>0.98</v>
+      </c>
+      <c r="CC17">
+        <v>0.98</v>
+      </c>
+      <c r="CD17">
+        <v>0.98</v>
+      </c>
+      <c r="CE17">
+        <v>0.98</v>
+      </c>
+      <c r="CF17">
+        <v>0.98</v>
+      </c>
+    </row>
+    <row r="18" spans="1:84" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>213</v>
+      </c>
+      <c r="B18">
+        <v>26</v>
+      </c>
+      <c r="C18">
         <v>1</v>
       </c>
-      <c r="E17">
-        <v>0.98</v>
-      </c>
-      <c r="F17">
-        <v>0.98</v>
-      </c>
-      <c r="G17">
-        <v>0.98</v>
-      </c>
-      <c r="H17">
-        <v>0.98</v>
-      </c>
-      <c r="I17">
-        <v>0.98</v>
-      </c>
-      <c r="J17">
-        <v>0.98</v>
-      </c>
-      <c r="K17">
-        <v>0.98</v>
-      </c>
-      <c r="L17">
-        <v>0.98</v>
-      </c>
-      <c r="M17">
-        <v>0.98</v>
-      </c>
-      <c r="N17">
-        <v>0.98</v>
-      </c>
-      <c r="O17">
-        <v>0.98</v>
-      </c>
-      <c r="P17">
-        <v>0.98</v>
-      </c>
-      <c r="Q17">
-        <v>0.98</v>
-      </c>
-      <c r="R17">
-        <v>0.98</v>
-      </c>
-      <c r="S17">
-        <v>0.98</v>
-      </c>
-      <c r="T17">
-        <v>0.98</v>
-      </c>
-      <c r="U17">
-        <v>0.98</v>
-      </c>
-      <c r="V17">
-        <v>0.98</v>
-      </c>
-      <c r="W17">
-        <v>0.98</v>
-      </c>
-      <c r="X17">
-        <v>0.98</v>
-      </c>
-      <c r="Y17">
-        <v>0.98</v>
-      </c>
-      <c r="Z17">
-        <v>0.98</v>
-      </c>
-      <c r="AA17">
-        <v>0.98</v>
-      </c>
-      <c r="AB17">
-        <v>0.98</v>
-      </c>
-      <c r="AC17">
-        <v>0.98</v>
-      </c>
-      <c r="AD17">
-        <v>0.98</v>
-      </c>
-      <c r="AE17">
-        <v>0.98</v>
-      </c>
-      <c r="AF17">
-        <v>0.98</v>
-      </c>
-      <c r="AG17">
-        <v>0.98</v>
-      </c>
-      <c r="AH17">
-        <v>0.98</v>
-      </c>
-      <c r="AI17">
-        <v>0.98</v>
-      </c>
-      <c r="AJ17">
-        <v>0.98</v>
-      </c>
-      <c r="AK17">
-        <v>0.98</v>
-      </c>
-      <c r="AL17">
-        <v>0.98</v>
-      </c>
-      <c r="AM17">
-        <v>0.98</v>
-      </c>
-      <c r="AN17">
-        <v>0.98</v>
-      </c>
-      <c r="AO17">
-        <v>0.98</v>
-      </c>
-      <c r="AP17">
-        <v>0.98</v>
-      </c>
-      <c r="AQ17">
-        <v>0.98</v>
-      </c>
-      <c r="AR17">
-        <v>0.98</v>
-      </c>
-      <c r="AS17">
-        <v>0.98</v>
-      </c>
-      <c r="AT17">
-        <v>0.98</v>
-      </c>
-      <c r="AU17">
-        <v>0.98</v>
-      </c>
-      <c r="AV17">
-        <v>0.98</v>
-      </c>
-      <c r="AW17">
-        <v>0.98</v>
-      </c>
-      <c r="AX17">
-        <v>0.98</v>
-      </c>
-      <c r="AY17">
-        <v>0.98</v>
-      </c>
-      <c r="AZ17">
-        <v>0.98</v>
-      </c>
-      <c r="BA17">
-        <v>0.98</v>
-      </c>
-      <c r="BB17">
-        <v>0.98</v>
-      </c>
-      <c r="BC17">
-        <v>0.98</v>
-      </c>
-      <c r="BD17">
-        <v>0.98</v>
-      </c>
-      <c r="BE17">
-        <v>0.98</v>
-      </c>
-      <c r="BF17">
-        <v>0.98</v>
-      </c>
-      <c r="BG17">
-        <v>0.98</v>
-      </c>
-      <c r="BH17">
-        <v>0.98</v>
-      </c>
-      <c r="BI17">
-        <v>0.98</v>
-      </c>
-      <c r="BJ17">
-        <v>0.98</v>
-      </c>
-      <c r="BK17">
-        <v>0.98</v>
-      </c>
-      <c r="BL17">
-        <v>0.98</v>
-      </c>
-      <c r="BM17">
-        <v>0.98</v>
-      </c>
-      <c r="BN17">
-        <v>0.98</v>
-      </c>
-      <c r="BO17">
-        <v>0.98</v>
-      </c>
-      <c r="BP17">
-        <v>0.98</v>
-      </c>
-      <c r="BQ17">
-        <v>0.98</v>
-      </c>
-      <c r="BR17">
-        <v>0.98</v>
-      </c>
-      <c r="BS17">
-        <v>0.98</v>
-      </c>
-      <c r="BT17">
-        <v>0.98</v>
-      </c>
-      <c r="BU17">
-        <v>0.98</v>
-      </c>
-      <c r="BV17">
-        <v>0.98</v>
-      </c>
-      <c r="BW17">
-        <v>0.98</v>
-      </c>
-      <c r="BX17">
-        <v>0.98</v>
-      </c>
-      <c r="BY17">
-        <v>0.98</v>
-      </c>
-      <c r="BZ17">
-        <v>0.98</v>
-      </c>
-      <c r="CA17">
-        <v>0.98</v>
-      </c>
-      <c r="CB17">
-        <v>0.98</v>
-      </c>
-      <c r="CC17">
-        <v>0.98</v>
-      </c>
-      <c r="CD17">
-        <v>0.98</v>
-      </c>
-      <c r="CE17">
-        <v>0.98</v>
-      </c>
-      <c r="CF17">
-        <v>0.98</v>
-      </c>
-      <c r="CG17">
-        <v>0.98</v>
-      </c>
-    </row>
-    <row r="18" spans="1:85" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>1</v>
-      </c>
-      <c r="B18">
-        <v>213</v>
-      </c>
-      <c r="C18">
-        <v>26</v>
-      </c>
       <c r="D18">
-        <v>1</v>
+        <v>0.81</v>
       </c>
       <c r="E18">
         <v>0.81</v>
@@ -5290,7 +5235,7 @@
         <v>0.81</v>
       </c>
       <c r="K18">
-        <v>0.81</v>
+        <v>0.82</v>
       </c>
       <c r="L18">
         <v>0.82</v>
@@ -5326,7 +5271,7 @@
         <v>0.82</v>
       </c>
       <c r="W18">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="X18">
         <v>0.83</v>
@@ -5347,7 +5292,7 @@
         <v>0.83</v>
       </c>
       <c r="AD18">
-        <v>0.83</v>
+        <v>0.84</v>
       </c>
       <c r="AE18">
         <v>0.84</v>
@@ -5365,7 +5310,7 @@
         <v>0.84</v>
       </c>
       <c r="AJ18">
-        <v>0.84</v>
+        <v>0.85</v>
       </c>
       <c r="AK18">
         <v>0.85</v>
@@ -5386,7 +5331,7 @@
         <v>0.85</v>
       </c>
       <c r="AQ18">
-        <v>0.85</v>
+        <v>0.86</v>
       </c>
       <c r="AR18">
         <v>0.86</v>
@@ -5395,7 +5340,7 @@
         <v>0.86</v>
       </c>
       <c r="AT18">
-        <v>0.86</v>
+        <v>0.87</v>
       </c>
       <c r="AU18">
         <v>0.87</v>
@@ -5404,13 +5349,13 @@
         <v>0.87</v>
       </c>
       <c r="AW18">
-        <v>0.87</v>
+        <v>0.88</v>
       </c>
       <c r="AX18">
         <v>0.88</v>
       </c>
       <c r="AY18">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AZ18">
         <v>0.89</v>
@@ -5419,7 +5364,7 @@
         <v>0.89</v>
       </c>
       <c r="BB18">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="BC18">
         <v>0.9</v>
@@ -5428,7 +5373,7 @@
         <v>0.9</v>
       </c>
       <c r="BE18">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="BF18">
         <v>0.91</v>
@@ -5443,7 +5388,7 @@
         <v>0.91</v>
       </c>
       <c r="BJ18">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
       <c r="BK18">
         <v>0.92</v>
@@ -5455,7 +5400,7 @@
         <v>0.92</v>
       </c>
       <c r="BN18">
-        <v>0.92</v>
+        <v>0.93</v>
       </c>
       <c r="BO18">
         <v>0.93</v>
@@ -5476,7 +5421,7 @@
         <v>0.93</v>
       </c>
       <c r="BU18">
-        <v>0.93</v>
+        <v>0.94</v>
       </c>
       <c r="BV18">
         <v>0.94</v>
@@ -5494,7 +5439,7 @@
         <v>0.94</v>
       </c>
       <c r="CA18">
-        <v>0.94</v>
+        <v>0.95</v>
       </c>
       <c r="CB18">
         <v>0.95</v>
@@ -5511,22 +5456,19 @@
       <c r="CF18">
         <v>0.95</v>
       </c>
-      <c r="CG18">
-        <v>0.95</v>
-      </c>
     </row>
-    <row r="19" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A19">
+        <v>31</v>
+      </c>
+      <c r="B19">
+        <v>6</v>
+      </c>
+      <c r="C19">
         <v>1</v>
       </c>
-      <c r="B19">
-        <v>31</v>
-      </c>
-      <c r="C19">
-        <v>6</v>
-      </c>
       <c r="D19">
-        <v>1</v>
+        <v>0.81</v>
       </c>
       <c r="E19">
         <v>0.81</v>
@@ -5547,7 +5489,7 @@
         <v>0.81</v>
       </c>
       <c r="K19">
-        <v>0.81</v>
+        <v>0.82</v>
       </c>
       <c r="L19">
         <v>0.82</v>
@@ -5583,7 +5525,7 @@
         <v>0.82</v>
       </c>
       <c r="W19">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="X19">
         <v>0.83</v>
@@ -5604,7 +5546,7 @@
         <v>0.83</v>
       </c>
       <c r="AD19">
-        <v>0.83</v>
+        <v>0.84</v>
       </c>
       <c r="AE19">
         <v>0.84</v>
@@ -5622,7 +5564,7 @@
         <v>0.84</v>
       </c>
       <c r="AJ19">
-        <v>0.84</v>
+        <v>0.85</v>
       </c>
       <c r="AK19">
         <v>0.85</v>
@@ -5643,7 +5585,7 @@
         <v>0.85</v>
       </c>
       <c r="AQ19">
-        <v>0.85</v>
+        <v>0.86</v>
       </c>
       <c r="AR19">
         <v>0.86</v>
@@ -5652,7 +5594,7 @@
         <v>0.86</v>
       </c>
       <c r="AT19">
-        <v>0.86</v>
+        <v>0.87</v>
       </c>
       <c r="AU19">
         <v>0.87</v>
@@ -5661,13 +5603,13 @@
         <v>0.87</v>
       </c>
       <c r="AW19">
-        <v>0.87</v>
+        <v>0.88</v>
       </c>
       <c r="AX19">
         <v>0.88</v>
       </c>
       <c r="AY19">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AZ19">
         <v>0.89</v>
@@ -5676,7 +5618,7 @@
         <v>0.89</v>
       </c>
       <c r="BB19">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="BC19">
         <v>0.9</v>
@@ -5685,7 +5627,7 @@
         <v>0.9</v>
       </c>
       <c r="BE19">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="BF19">
         <v>0.91</v>
@@ -5700,7 +5642,7 @@
         <v>0.91</v>
       </c>
       <c r="BJ19">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
       <c r="BK19">
         <v>0.92</v>
@@ -5712,7 +5654,7 @@
         <v>0.92</v>
       </c>
       <c r="BN19">
-        <v>0.92</v>
+        <v>0.93</v>
       </c>
       <c r="BO19">
         <v>0.93</v>
@@ -5733,7 +5675,7 @@
         <v>0.93</v>
       </c>
       <c r="BU19">
-        <v>0.93</v>
+        <v>0.94</v>
       </c>
       <c r="BV19">
         <v>0.94</v>
@@ -5751,7 +5693,7 @@
         <v>0.94</v>
       </c>
       <c r="CA19">
-        <v>0.94</v>
+        <v>0.95</v>
       </c>
       <c r="CB19">
         <v>0.95</v>
@@ -5768,22 +5710,19 @@
       <c r="CF19">
         <v>0.95</v>
       </c>
-      <c r="CG19">
-        <v>0.95</v>
-      </c>
     </row>
-    <row r="20" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A20">
+        <v>32</v>
+      </c>
+      <c r="B20">
+        <v>2</v>
+      </c>
+      <c r="C20">
         <v>1</v>
       </c>
-      <c r="B20">
-        <v>32</v>
-      </c>
-      <c r="C20">
-        <v>2</v>
-      </c>
       <c r="D20">
-        <v>1</v>
+        <v>0.74</v>
       </c>
       <c r="E20">
         <v>0.74</v>
@@ -5795,7 +5734,7 @@
         <v>0.74</v>
       </c>
       <c r="H20">
-        <v>0.74</v>
+        <v>0.75</v>
       </c>
       <c r="I20">
         <v>0.75</v>
@@ -5825,7 +5764,7 @@
         <v>0.75</v>
       </c>
       <c r="R20">
-        <v>0.75</v>
+        <v>0.76</v>
       </c>
       <c r="S20">
         <v>0.76</v>
@@ -5849,7 +5788,7 @@
         <v>0.76</v>
       </c>
       <c r="Z20">
-        <v>0.76</v>
+        <v>0.77</v>
       </c>
       <c r="AA20">
         <v>0.77</v>
@@ -5864,7 +5803,7 @@
         <v>0.77</v>
       </c>
       <c r="AE20">
-        <v>0.77</v>
+        <v>0.78</v>
       </c>
       <c r="AF20">
         <v>0.78</v>
@@ -5879,7 +5818,7 @@
         <v>0.78</v>
       </c>
       <c r="AJ20">
-        <v>0.78</v>
+        <v>0.79</v>
       </c>
       <c r="AK20">
         <v>0.79</v>
@@ -5891,7 +5830,7 @@
         <v>0.79</v>
       </c>
       <c r="AN20">
-        <v>0.79</v>
+        <v>0.8</v>
       </c>
       <c r="AO20">
         <v>0.8</v>
@@ -5906,34 +5845,34 @@
         <v>0.8</v>
       </c>
       <c r="AS20">
-        <v>0.8</v>
+        <v>0.81</v>
       </c>
       <c r="AT20">
         <v>0.81</v>
       </c>
       <c r="AU20">
-        <v>0.81</v>
+        <v>0.82</v>
       </c>
       <c r="AV20">
         <v>0.82</v>
       </c>
       <c r="AW20">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AX20">
-        <v>0.83</v>
+        <v>0.84</v>
       </c>
       <c r="AY20">
         <v>0.84</v>
       </c>
       <c r="AZ20">
-        <v>0.84</v>
+        <v>0.85</v>
       </c>
       <c r="BA20">
         <v>0.85</v>
       </c>
       <c r="BB20">
-        <v>0.85</v>
+        <v>0.86</v>
       </c>
       <c r="BC20">
         <v>0.86</v>
@@ -5942,7 +5881,7 @@
         <v>0.86</v>
       </c>
       <c r="BE20">
-        <v>0.86</v>
+        <v>0.87</v>
       </c>
       <c r="BF20">
         <v>0.87</v>
@@ -5954,7 +5893,7 @@
         <v>0.87</v>
       </c>
       <c r="BI20">
-        <v>0.87</v>
+        <v>0.88</v>
       </c>
       <c r="BJ20">
         <v>0.88</v>
@@ -5963,7 +5902,7 @@
         <v>0.88</v>
       </c>
       <c r="BL20">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="BM20">
         <v>0.89</v>
@@ -5975,7 +5914,7 @@
         <v>0.89</v>
       </c>
       <c r="BP20">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="BQ20">
         <v>0.9</v>
@@ -5990,7 +5929,7 @@
         <v>0.9</v>
       </c>
       <c r="BU20">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="BV20">
         <v>0.91</v>
@@ -6005,7 +5944,7 @@
         <v>0.91</v>
       </c>
       <c r="BZ20">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
       <c r="CA20">
         <v>0.92</v>
@@ -6020,464 +5959,458 @@
         <v>0.92</v>
       </c>
       <c r="CE20">
-        <v>0.92</v>
+        <v>0.93</v>
       </c>
       <c r="CF20">
         <v>0.93</v>
       </c>
-      <c r="CG20">
-        <v>0.93</v>
-      </c>
     </row>
-    <row r="21" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A21">
+        <v>33</v>
+      </c>
+      <c r="B21">
         <v>1</v>
-      </c>
-      <c r="B21">
-        <v>33</v>
       </c>
       <c r="C21">
         <v>1</v>
       </c>
       <c r="D21">
-        <v>1</v>
+        <v>2.1</v>
       </c>
       <c r="E21">
-        <v>2.1</v>
+        <v>2.11</v>
       </c>
       <c r="F21">
         <v>2.11</v>
       </c>
       <c r="G21">
-        <v>2.11</v>
+        <v>2.12</v>
       </c>
       <c r="H21">
-        <v>2.12</v>
+        <v>2.13</v>
       </c>
       <c r="I21">
         <v>2.13</v>
       </c>
       <c r="J21">
-        <v>2.13</v>
+        <v>2.14</v>
       </c>
       <c r="K21">
-        <v>2.14</v>
+        <v>2.15</v>
       </c>
       <c r="L21">
         <v>2.15</v>
       </c>
       <c r="M21">
-        <v>2.15</v>
+        <v>2.16</v>
       </c>
       <c r="N21">
-        <v>2.16</v>
+        <v>2.17</v>
       </c>
       <c r="O21">
         <v>2.17</v>
       </c>
       <c r="P21">
-        <v>2.17</v>
+        <v>2.1800000000000002</v>
       </c>
       <c r="Q21">
-        <v>2.1800000000000002</v>
+        <v>2.19</v>
       </c>
       <c r="R21">
         <v>2.19</v>
       </c>
       <c r="S21">
-        <v>2.19</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="T21">
-        <v>2.2000000000000002</v>
+        <v>2.21</v>
       </c>
       <c r="U21">
         <v>2.21</v>
       </c>
       <c r="V21">
-        <v>2.21</v>
+        <v>2.2200000000000002</v>
       </c>
       <c r="W21">
-        <v>2.2200000000000002</v>
+        <v>2.23</v>
       </c>
       <c r="X21">
-        <v>2.23</v>
+        <v>2.2400000000000002</v>
       </c>
       <c r="Y21">
-        <v>2.2400000000000002</v>
+        <v>2.25</v>
       </c>
       <c r="Z21">
-        <v>2.25</v>
+        <v>2.2599999999999998</v>
       </c>
       <c r="AA21">
-        <v>2.2599999999999998</v>
+        <v>2.2799999999999998</v>
       </c>
       <c r="AB21">
-        <v>2.2799999999999998</v>
+        <v>2.29</v>
       </c>
       <c r="AC21">
-        <v>2.29</v>
+        <v>2.31</v>
       </c>
       <c r="AD21">
-        <v>2.31</v>
+        <v>2.3199999999999998</v>
       </c>
       <c r="AE21">
-        <v>2.3199999999999998</v>
+        <v>2.33</v>
       </c>
       <c r="AF21">
-        <v>2.33</v>
+        <v>2.35</v>
       </c>
       <c r="AG21">
-        <v>2.35</v>
+        <v>2.36</v>
       </c>
       <c r="AH21">
-        <v>2.36</v>
+        <v>2.38</v>
       </c>
       <c r="AI21">
-        <v>2.38</v>
+        <v>2.39</v>
       </c>
       <c r="AJ21">
-        <v>2.39</v>
+        <v>2.4</v>
       </c>
       <c r="AK21">
-        <v>2.4</v>
+        <v>2.42</v>
       </c>
       <c r="AL21">
-        <v>2.42</v>
+        <v>2.4300000000000002</v>
       </c>
       <c r="AM21">
-        <v>2.4300000000000002</v>
+        <v>2.4500000000000002</v>
       </c>
       <c r="AN21">
-        <v>2.4500000000000002</v>
+        <v>2.46</v>
       </c>
       <c r="AO21">
-        <v>2.46</v>
+        <v>2.4700000000000002</v>
       </c>
       <c r="AP21">
-        <v>2.4700000000000002</v>
+        <v>2.4900000000000002</v>
       </c>
       <c r="AQ21">
-        <v>2.4900000000000002</v>
+        <v>2.5</v>
       </c>
       <c r="AR21">
-        <v>2.5</v>
+        <v>2.52</v>
       </c>
       <c r="AS21">
-        <v>2.52</v>
+        <v>2.5499999999999998</v>
       </c>
       <c r="AT21">
-        <v>2.5499999999999998</v>
+        <v>2.59</v>
       </c>
       <c r="AU21">
-        <v>2.59</v>
+        <v>2.63</v>
       </c>
       <c r="AV21">
-        <v>2.63</v>
+        <v>2.66</v>
       </c>
       <c r="AW21">
-        <v>2.66</v>
+        <v>2.7</v>
       </c>
       <c r="AX21">
-        <v>2.7</v>
+        <v>2.74</v>
       </c>
       <c r="AY21">
-        <v>2.74</v>
+        <v>2.77</v>
       </c>
       <c r="AZ21">
-        <v>2.77</v>
+        <v>2.81</v>
       </c>
       <c r="BA21">
-        <v>2.81</v>
+        <v>2.85</v>
       </c>
       <c r="BB21">
-        <v>2.85</v>
+        <v>2.88</v>
       </c>
       <c r="BC21">
-        <v>2.88</v>
+        <v>2.91</v>
       </c>
       <c r="BD21">
-        <v>2.91</v>
+        <v>2.93</v>
       </c>
       <c r="BE21">
-        <v>2.93</v>
+        <v>2.95</v>
       </c>
       <c r="BF21">
-        <v>2.95</v>
+        <v>2.98</v>
       </c>
       <c r="BG21">
-        <v>2.98</v>
+        <v>3</v>
       </c>
       <c r="BH21">
-        <v>3</v>
+        <v>3.02</v>
       </c>
       <c r="BI21">
-        <v>3.02</v>
+        <v>3.05</v>
       </c>
       <c r="BJ21">
-        <v>3.05</v>
+        <v>3.07</v>
       </c>
       <c r="BK21">
-        <v>3.07</v>
+        <v>3.09</v>
       </c>
       <c r="BL21">
-        <v>3.09</v>
+        <v>3.12</v>
       </c>
       <c r="BM21">
-        <v>3.12</v>
+        <v>3.13</v>
       </c>
       <c r="BN21">
-        <v>3.13</v>
+        <v>3.15</v>
       </c>
       <c r="BO21">
-        <v>3.15</v>
+        <v>3.16</v>
       </c>
       <c r="BP21">
-        <v>3.16</v>
+        <v>3.18</v>
       </c>
       <c r="BQ21">
-        <v>3.18</v>
+        <v>3.2</v>
       </c>
       <c r="BR21">
-        <v>3.2</v>
+        <v>3.21</v>
       </c>
       <c r="BS21">
-        <v>3.21</v>
+        <v>3.23</v>
       </c>
       <c r="BT21">
-        <v>3.23</v>
+        <v>3.24</v>
       </c>
       <c r="BU21">
-        <v>3.24</v>
+        <v>3.26</v>
       </c>
       <c r="BV21">
-        <v>3.26</v>
+        <v>3.28</v>
       </c>
       <c r="BW21">
-        <v>3.28</v>
+        <v>3.29</v>
       </c>
       <c r="BX21">
-        <v>3.29</v>
+        <v>3.31</v>
       </c>
       <c r="BY21">
-        <v>3.31</v>
+        <v>3.32</v>
       </c>
       <c r="BZ21">
-        <v>3.32</v>
+        <v>3.34</v>
       </c>
       <c r="CA21">
-        <v>3.34</v>
+        <v>3.36</v>
       </c>
       <c r="CB21">
-        <v>3.36</v>
+        <v>3.37</v>
       </c>
       <c r="CC21">
-        <v>3.37</v>
+        <v>3.39</v>
       </c>
       <c r="CD21">
-        <v>3.39</v>
+        <v>3.4</v>
       </c>
       <c r="CE21">
-        <v>3.4</v>
+        <v>3.42</v>
       </c>
       <c r="CF21">
-        <v>3.42</v>
-      </c>
-      <c r="CG21">
         <v>3.44</v>
       </c>
     </row>
-    <row r="22" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A22">
+        <v>33</v>
+      </c>
+      <c r="B22">
+        <v>15</v>
+      </c>
+      <c r="C22">
         <v>1</v>
       </c>
-      <c r="B22">
-        <v>33</v>
-      </c>
-      <c r="C22">
-        <v>15</v>
-      </c>
       <c r="D22">
-        <v>1</v>
+        <v>1.91</v>
       </c>
       <c r="E22">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="F22">
         <v>1.9</v>
       </c>
       <c r="G22">
-        <v>1.9</v>
+        <v>1.89</v>
       </c>
       <c r="H22">
         <v>1.89</v>
       </c>
       <c r="I22">
-        <v>1.89</v>
+        <v>1.88</v>
       </c>
       <c r="J22">
         <v>1.88</v>
       </c>
       <c r="K22">
-        <v>1.88</v>
+        <v>1.87</v>
       </c>
       <c r="L22">
         <v>1.87</v>
       </c>
       <c r="M22">
-        <v>1.87</v>
+        <v>1.86</v>
       </c>
       <c r="N22">
         <v>1.86</v>
       </c>
       <c r="O22">
-        <v>1.86</v>
+        <v>1.85</v>
       </c>
       <c r="P22">
         <v>1.85</v>
       </c>
       <c r="Q22">
-        <v>1.85</v>
+        <v>1.84</v>
       </c>
       <c r="R22">
         <v>1.84</v>
       </c>
       <c r="S22">
-        <v>1.84</v>
+        <v>1.83</v>
       </c>
       <c r="T22">
         <v>1.83</v>
       </c>
       <c r="U22">
-        <v>1.83</v>
+        <v>1.82</v>
       </c>
       <c r="V22">
         <v>1.82</v>
       </c>
       <c r="W22">
-        <v>1.82</v>
+        <v>1.81</v>
       </c>
       <c r="X22">
         <v>1.81</v>
       </c>
       <c r="Y22">
-        <v>1.81</v>
+        <v>1.8</v>
       </c>
       <c r="Z22">
-        <v>1.8</v>
+        <v>1.79</v>
       </c>
       <c r="AA22">
-        <v>1.79</v>
+        <v>1.78</v>
       </c>
       <c r="AB22">
-        <v>1.78</v>
+        <v>1.77</v>
       </c>
       <c r="AC22">
         <v>1.77</v>
       </c>
       <c r="AD22">
-        <v>1.77</v>
+        <v>1.76</v>
       </c>
       <c r="AE22">
-        <v>1.76</v>
+        <v>1.75</v>
       </c>
       <c r="AF22">
-        <v>1.75</v>
+        <v>1.74</v>
       </c>
       <c r="AG22">
-        <v>1.74</v>
+        <v>1.73</v>
       </c>
       <c r="AH22">
         <v>1.73</v>
       </c>
       <c r="AI22">
-        <v>1.73</v>
+        <v>1.72</v>
       </c>
       <c r="AJ22">
-        <v>1.72</v>
+        <v>1.71</v>
       </c>
       <c r="AK22">
         <v>1.71</v>
       </c>
       <c r="AL22">
-        <v>1.71</v>
+        <v>1.7</v>
       </c>
       <c r="AM22">
-        <v>1.7</v>
+        <v>1.69</v>
       </c>
       <c r="AN22">
         <v>1.69</v>
       </c>
       <c r="AO22">
-        <v>1.69</v>
+        <v>1.68</v>
       </c>
       <c r="AP22">
-        <v>1.68</v>
+        <v>1.67</v>
       </c>
       <c r="AQ22">
         <v>1.67</v>
       </c>
       <c r="AR22">
-        <v>1.67</v>
+        <v>1.66</v>
       </c>
       <c r="AS22">
-        <v>1.66</v>
+        <v>1.64</v>
       </c>
       <c r="AT22">
-        <v>1.64</v>
+        <v>1.63</v>
       </c>
       <c r="AU22">
-        <v>1.63</v>
+        <v>1.62</v>
       </c>
       <c r="AV22">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="AW22">
-        <v>1.6</v>
+        <v>1.59</v>
       </c>
       <c r="AX22">
-        <v>1.59</v>
+        <v>1.58</v>
       </c>
       <c r="AY22">
-        <v>1.58</v>
+        <v>1.56</v>
       </c>
       <c r="AZ22">
-        <v>1.56</v>
+        <v>1.55</v>
       </c>
       <c r="BA22">
-        <v>1.55</v>
+        <v>1.54</v>
       </c>
       <c r="BB22">
-        <v>1.54</v>
+        <v>1.53</v>
       </c>
       <c r="BC22">
-        <v>1.53</v>
+        <v>1.52</v>
       </c>
       <c r="BD22">
         <v>1.52</v>
       </c>
       <c r="BE22">
-        <v>1.52</v>
+        <v>1.51</v>
       </c>
       <c r="BF22">
         <v>1.51</v>
       </c>
       <c r="BG22">
-        <v>1.51</v>
+        <v>1.5</v>
       </c>
       <c r="BH22">
-        <v>1.5</v>
+        <v>1.49</v>
       </c>
       <c r="BI22">
         <v>1.49</v>
       </c>
       <c r="BJ22">
-        <v>1.49</v>
+        <v>1.48</v>
       </c>
       <c r="BK22">
         <v>1.48</v>
       </c>
       <c r="BL22">
-        <v>1.48</v>
+        <v>1.47</v>
       </c>
       <c r="BM22">
         <v>1.47</v>
@@ -6486,7 +6419,7 @@
         <v>1.47</v>
       </c>
       <c r="BO22">
-        <v>1.47</v>
+        <v>1.46</v>
       </c>
       <c r="BP22">
         <v>1.46</v>
@@ -6495,7 +6428,7 @@
         <v>1.46</v>
       </c>
       <c r="BR22">
-        <v>1.46</v>
+        <v>1.45</v>
       </c>
       <c r="BS22">
         <v>1.45</v>
@@ -6504,7 +6437,7 @@
         <v>1.45</v>
       </c>
       <c r="BU22">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="BV22">
         <v>1.44</v>
@@ -6513,7 +6446,7 @@
         <v>1.44</v>
       </c>
       <c r="BX22">
-        <v>1.44</v>
+        <v>1.43</v>
       </c>
       <c r="BY22">
         <v>1.43</v>
@@ -6522,7 +6455,7 @@
         <v>1.43</v>
       </c>
       <c r="CA22">
-        <v>1.43</v>
+        <v>1.42</v>
       </c>
       <c r="CB22">
         <v>1.42</v>
@@ -6534,284 +6467,278 @@
         <v>1.42</v>
       </c>
       <c r="CE22">
-        <v>1.42</v>
+        <v>1.41</v>
       </c>
       <c r="CF22">
         <v>1.41</v>
       </c>
-      <c r="CG22">
-        <v>1.41</v>
-      </c>
     </row>
-    <row r="23" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A23">
+        <v>34</v>
+      </c>
+      <c r="B23">
         <v>1</v>
-      </c>
-      <c r="B23">
-        <v>34</v>
       </c>
       <c r="C23">
         <v>1</v>
       </c>
       <c r="D23">
+        <v>0.98</v>
+      </c>
+      <c r="E23">
+        <v>0.98</v>
+      </c>
+      <c r="F23">
+        <v>0.98</v>
+      </c>
+      <c r="G23">
+        <v>0.98</v>
+      </c>
+      <c r="H23">
+        <v>0.98</v>
+      </c>
+      <c r="I23">
+        <v>0.98</v>
+      </c>
+      <c r="J23">
+        <v>0.98</v>
+      </c>
+      <c r="K23">
+        <v>0.98</v>
+      </c>
+      <c r="L23">
+        <v>0.98</v>
+      </c>
+      <c r="M23">
+        <v>0.98</v>
+      </c>
+      <c r="N23">
+        <v>0.98</v>
+      </c>
+      <c r="O23">
+        <v>0.98</v>
+      </c>
+      <c r="P23">
+        <v>0.98</v>
+      </c>
+      <c r="Q23">
+        <v>0.98</v>
+      </c>
+      <c r="R23">
+        <v>0.98</v>
+      </c>
+      <c r="S23">
+        <v>0.98</v>
+      </c>
+      <c r="T23">
+        <v>0.98</v>
+      </c>
+      <c r="U23">
+        <v>0.98</v>
+      </c>
+      <c r="V23">
+        <v>0.98</v>
+      </c>
+      <c r="W23">
+        <v>0.98</v>
+      </c>
+      <c r="X23">
+        <v>0.98</v>
+      </c>
+      <c r="Y23">
+        <v>0.98</v>
+      </c>
+      <c r="Z23">
+        <v>0.98</v>
+      </c>
+      <c r="AA23">
+        <v>0.98</v>
+      </c>
+      <c r="AB23">
+        <v>0.98</v>
+      </c>
+      <c r="AC23">
+        <v>0.98</v>
+      </c>
+      <c r="AD23">
+        <v>0.98</v>
+      </c>
+      <c r="AE23">
+        <v>0.98</v>
+      </c>
+      <c r="AF23">
+        <v>0.98</v>
+      </c>
+      <c r="AG23">
+        <v>0.98</v>
+      </c>
+      <c r="AH23">
+        <v>0.98</v>
+      </c>
+      <c r="AI23">
+        <v>0.98</v>
+      </c>
+      <c r="AJ23">
+        <v>0.98</v>
+      </c>
+      <c r="AK23">
+        <v>0.98</v>
+      </c>
+      <c r="AL23">
+        <v>0.98</v>
+      </c>
+      <c r="AM23">
+        <v>0.98</v>
+      </c>
+      <c r="AN23">
+        <v>0.98</v>
+      </c>
+      <c r="AO23">
+        <v>0.98</v>
+      </c>
+      <c r="AP23">
+        <v>0.98</v>
+      </c>
+      <c r="AQ23">
+        <v>0.98</v>
+      </c>
+      <c r="AR23">
+        <v>0.98</v>
+      </c>
+      <c r="AS23">
+        <v>0.98</v>
+      </c>
+      <c r="AT23">
+        <v>0.98</v>
+      </c>
+      <c r="AU23">
+        <v>0.98</v>
+      </c>
+      <c r="AV23">
+        <v>0.98</v>
+      </c>
+      <c r="AW23">
+        <v>0.98</v>
+      </c>
+      <c r="AX23">
+        <v>0.98</v>
+      </c>
+      <c r="AY23">
+        <v>0.98</v>
+      </c>
+      <c r="AZ23">
+        <v>0.98</v>
+      </c>
+      <c r="BA23">
+        <v>0.98</v>
+      </c>
+      <c r="BB23">
+        <v>0.98</v>
+      </c>
+      <c r="BC23">
+        <v>0.98</v>
+      </c>
+      <c r="BD23">
+        <v>0.98</v>
+      </c>
+      <c r="BE23">
+        <v>0.98</v>
+      </c>
+      <c r="BF23">
+        <v>0.98</v>
+      </c>
+      <c r="BG23">
+        <v>0.98</v>
+      </c>
+      <c r="BH23">
+        <v>0.98</v>
+      </c>
+      <c r="BI23">
+        <v>0.98</v>
+      </c>
+      <c r="BJ23">
+        <v>0.98</v>
+      </c>
+      <c r="BK23">
+        <v>0.98</v>
+      </c>
+      <c r="BL23">
+        <v>0.98</v>
+      </c>
+      <c r="BM23">
+        <v>0.98</v>
+      </c>
+      <c r="BN23">
+        <v>0.98</v>
+      </c>
+      <c r="BO23">
+        <v>0.98</v>
+      </c>
+      <c r="BP23">
+        <v>0.98</v>
+      </c>
+      <c r="BQ23">
+        <v>0.98</v>
+      </c>
+      <c r="BR23">
+        <v>0.98</v>
+      </c>
+      <c r="BS23">
+        <v>0.98</v>
+      </c>
+      <c r="BT23">
+        <v>0.98</v>
+      </c>
+      <c r="BU23">
+        <v>0.98</v>
+      </c>
+      <c r="BV23">
+        <v>0.98</v>
+      </c>
+      <c r="BW23">
+        <v>0.98</v>
+      </c>
+      <c r="BX23">
+        <v>0.98</v>
+      </c>
+      <c r="BY23">
+        <v>0.98</v>
+      </c>
+      <c r="BZ23">
+        <v>0.98</v>
+      </c>
+      <c r="CA23">
+        <v>0.98</v>
+      </c>
+      <c r="CB23">
+        <v>0.98</v>
+      </c>
+      <c r="CC23">
+        <v>0.98</v>
+      </c>
+      <c r="CD23">
+        <v>0.98</v>
+      </c>
+      <c r="CE23">
+        <v>0.98</v>
+      </c>
+      <c r="CF23">
+        <v>0.98</v>
+      </c>
+    </row>
+    <row r="24" spans="1:84" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>41</v>
+      </c>
+      <c r="B24">
+        <v>6</v>
+      </c>
+      <c r="C24">
         <v>1</v>
       </c>
-      <c r="E23">
-        <v>0.98</v>
-      </c>
-      <c r="F23">
-        <v>0.98</v>
-      </c>
-      <c r="G23">
-        <v>0.98</v>
-      </c>
-      <c r="H23">
-        <v>0.98</v>
-      </c>
-      <c r="I23">
-        <v>0.98</v>
-      </c>
-      <c r="J23">
-        <v>0.98</v>
-      </c>
-      <c r="K23">
-        <v>0.98</v>
-      </c>
-      <c r="L23">
-        <v>0.98</v>
-      </c>
-      <c r="M23">
-        <v>0.98</v>
-      </c>
-      <c r="N23">
-        <v>0.98</v>
-      </c>
-      <c r="O23">
-        <v>0.98</v>
-      </c>
-      <c r="P23">
-        <v>0.98</v>
-      </c>
-      <c r="Q23">
-        <v>0.98</v>
-      </c>
-      <c r="R23">
-        <v>0.98</v>
-      </c>
-      <c r="S23">
-        <v>0.98</v>
-      </c>
-      <c r="T23">
-        <v>0.98</v>
-      </c>
-      <c r="U23">
-        <v>0.98</v>
-      </c>
-      <c r="V23">
-        <v>0.98</v>
-      </c>
-      <c r="W23">
-        <v>0.98</v>
-      </c>
-      <c r="X23">
-        <v>0.98</v>
-      </c>
-      <c r="Y23">
-        <v>0.98</v>
-      </c>
-      <c r="Z23">
-        <v>0.98</v>
-      </c>
-      <c r="AA23">
-        <v>0.98</v>
-      </c>
-      <c r="AB23">
-        <v>0.98</v>
-      </c>
-      <c r="AC23">
-        <v>0.98</v>
-      </c>
-      <c r="AD23">
-        <v>0.98</v>
-      </c>
-      <c r="AE23">
-        <v>0.98</v>
-      </c>
-      <c r="AF23">
-        <v>0.98</v>
-      </c>
-      <c r="AG23">
-        <v>0.98</v>
-      </c>
-      <c r="AH23">
-        <v>0.98</v>
-      </c>
-      <c r="AI23">
-        <v>0.98</v>
-      </c>
-      <c r="AJ23">
-        <v>0.98</v>
-      </c>
-      <c r="AK23">
-        <v>0.98</v>
-      </c>
-      <c r="AL23">
-        <v>0.98</v>
-      </c>
-      <c r="AM23">
-        <v>0.98</v>
-      </c>
-      <c r="AN23">
-        <v>0.98</v>
-      </c>
-      <c r="AO23">
-        <v>0.98</v>
-      </c>
-      <c r="AP23">
-        <v>0.98</v>
-      </c>
-      <c r="AQ23">
-        <v>0.98</v>
-      </c>
-      <c r="AR23">
-        <v>0.98</v>
-      </c>
-      <c r="AS23">
-        <v>0.98</v>
-      </c>
-      <c r="AT23">
-        <v>0.98</v>
-      </c>
-      <c r="AU23">
-        <v>0.98</v>
-      </c>
-      <c r="AV23">
-        <v>0.98</v>
-      </c>
-      <c r="AW23">
-        <v>0.98</v>
-      </c>
-      <c r="AX23">
-        <v>0.98</v>
-      </c>
-      <c r="AY23">
-        <v>0.98</v>
-      </c>
-      <c r="AZ23">
-        <v>0.98</v>
-      </c>
-      <c r="BA23">
-        <v>0.98</v>
-      </c>
-      <c r="BB23">
-        <v>0.98</v>
-      </c>
-      <c r="BC23">
-        <v>0.98</v>
-      </c>
-      <c r="BD23">
-        <v>0.98</v>
-      </c>
-      <c r="BE23">
-        <v>0.98</v>
-      </c>
-      <c r="BF23">
-        <v>0.98</v>
-      </c>
-      <c r="BG23">
-        <v>0.98</v>
-      </c>
-      <c r="BH23">
-        <v>0.98</v>
-      </c>
-      <c r="BI23">
-        <v>0.98</v>
-      </c>
-      <c r="BJ23">
-        <v>0.98</v>
-      </c>
-      <c r="BK23">
-        <v>0.98</v>
-      </c>
-      <c r="BL23">
-        <v>0.98</v>
-      </c>
-      <c r="BM23">
-        <v>0.98</v>
-      </c>
-      <c r="BN23">
-        <v>0.98</v>
-      </c>
-      <c r="BO23">
-        <v>0.98</v>
-      </c>
-      <c r="BP23">
-        <v>0.98</v>
-      </c>
-      <c r="BQ23">
-        <v>0.98</v>
-      </c>
-      <c r="BR23">
-        <v>0.98</v>
-      </c>
-      <c r="BS23">
-        <v>0.98</v>
-      </c>
-      <c r="BT23">
-        <v>0.98</v>
-      </c>
-      <c r="BU23">
-        <v>0.98</v>
-      </c>
-      <c r="BV23">
-        <v>0.98</v>
-      </c>
-      <c r="BW23">
-        <v>0.98</v>
-      </c>
-      <c r="BX23">
-        <v>0.98</v>
-      </c>
-      <c r="BY23">
-        <v>0.98</v>
-      </c>
-      <c r="BZ23">
-        <v>0.98</v>
-      </c>
-      <c r="CA23">
-        <v>0.98</v>
-      </c>
-      <c r="CB23">
-        <v>0.98</v>
-      </c>
-      <c r="CC23">
-        <v>0.98</v>
-      </c>
-      <c r="CD23">
-        <v>0.98</v>
-      </c>
-      <c r="CE23">
-        <v>0.98</v>
-      </c>
-      <c r="CF23">
-        <v>0.98</v>
-      </c>
-      <c r="CG23">
-        <v>0.98</v>
-      </c>
-    </row>
-    <row r="24" spans="1:85" x14ac:dyDescent="0.25">
-      <c r="A24">
-        <v>1</v>
-      </c>
-      <c r="B24">
-        <v>41</v>
-      </c>
-      <c r="C24">
-        <v>6</v>
-      </c>
       <c r="D24">
-        <v>1</v>
+        <v>0.81</v>
       </c>
       <c r="E24">
         <v>0.81</v>
@@ -6832,7 +6759,7 @@
         <v>0.81</v>
       </c>
       <c r="K24">
-        <v>0.81</v>
+        <v>0.82</v>
       </c>
       <c r="L24">
         <v>0.82</v>
@@ -6868,7 +6795,7 @@
         <v>0.82</v>
       </c>
       <c r="W24">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="X24">
         <v>0.83</v>
@@ -6889,7 +6816,7 @@
         <v>0.83</v>
       </c>
       <c r="AD24">
-        <v>0.83</v>
+        <v>0.84</v>
       </c>
       <c r="AE24">
         <v>0.84</v>
@@ -6907,7 +6834,7 @@
         <v>0.84</v>
       </c>
       <c r="AJ24">
-        <v>0.84</v>
+        <v>0.85</v>
       </c>
       <c r="AK24">
         <v>0.85</v>
@@ -6928,7 +6855,7 @@
         <v>0.85</v>
       </c>
       <c r="AQ24">
-        <v>0.85</v>
+        <v>0.86</v>
       </c>
       <c r="AR24">
         <v>0.86</v>
@@ -6937,7 +6864,7 @@
         <v>0.86</v>
       </c>
       <c r="AT24">
-        <v>0.86</v>
+        <v>0.87</v>
       </c>
       <c r="AU24">
         <v>0.87</v>
@@ -6946,13 +6873,13 @@
         <v>0.87</v>
       </c>
       <c r="AW24">
-        <v>0.87</v>
+        <v>0.88</v>
       </c>
       <c r="AX24">
         <v>0.88</v>
       </c>
       <c r="AY24">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AZ24">
         <v>0.89</v>
@@ -6961,7 +6888,7 @@
         <v>0.89</v>
       </c>
       <c r="BB24">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="BC24">
         <v>0.9</v>
@@ -6970,7 +6897,7 @@
         <v>0.9</v>
       </c>
       <c r="BE24">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="BF24">
         <v>0.91</v>
@@ -6985,7 +6912,7 @@
         <v>0.91</v>
       </c>
       <c r="BJ24">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
       <c r="BK24">
         <v>0.92</v>
@@ -6997,7 +6924,7 @@
         <v>0.92</v>
       </c>
       <c r="BN24">
-        <v>0.92</v>
+        <v>0.93</v>
       </c>
       <c r="BO24">
         <v>0.93</v>
@@ -7018,7 +6945,7 @@
         <v>0.93</v>
       </c>
       <c r="BU24">
-        <v>0.93</v>
+        <v>0.94</v>
       </c>
       <c r="BV24">
         <v>0.94</v>
@@ -7036,7 +6963,7 @@
         <v>0.94</v>
       </c>
       <c r="CA24">
-        <v>0.94</v>
+        <v>0.95</v>
       </c>
       <c r="CB24">
         <v>0.95</v>
@@ -7053,22 +6980,19 @@
       <c r="CF24">
         <v>0.95</v>
       </c>
-      <c r="CG24">
-        <v>0.95</v>
-      </c>
     </row>
-    <row r="25" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A25">
+        <v>42</v>
+      </c>
+      <c r="B25">
+        <v>2</v>
+      </c>
+      <c r="C25">
         <v>1</v>
       </c>
-      <c r="B25">
-        <v>42</v>
-      </c>
-      <c r="C25">
-        <v>2</v>
-      </c>
       <c r="D25">
-        <v>1</v>
+        <v>0.74</v>
       </c>
       <c r="E25">
         <v>0.74</v>
@@ -7080,7 +7004,7 @@
         <v>0.74</v>
       </c>
       <c r="H25">
-        <v>0.74</v>
+        <v>0.75</v>
       </c>
       <c r="I25">
         <v>0.75</v>
@@ -7110,7 +7034,7 @@
         <v>0.75</v>
       </c>
       <c r="R25">
-        <v>0.75</v>
+        <v>0.76</v>
       </c>
       <c r="S25">
         <v>0.76</v>
@@ -7134,7 +7058,7 @@
         <v>0.76</v>
       </c>
       <c r="Z25">
-        <v>0.76</v>
+        <v>0.77</v>
       </c>
       <c r="AA25">
         <v>0.77</v>
@@ -7149,7 +7073,7 @@
         <v>0.77</v>
       </c>
       <c r="AE25">
-        <v>0.77</v>
+        <v>0.78</v>
       </c>
       <c r="AF25">
         <v>0.78</v>
@@ -7164,7 +7088,7 @@
         <v>0.78</v>
       </c>
       <c r="AJ25">
-        <v>0.78</v>
+        <v>0.79</v>
       </c>
       <c r="AK25">
         <v>0.79</v>
@@ -7176,7 +7100,7 @@
         <v>0.79</v>
       </c>
       <c r="AN25">
-        <v>0.79</v>
+        <v>0.8</v>
       </c>
       <c r="AO25">
         <v>0.8</v>
@@ -7191,34 +7115,34 @@
         <v>0.8</v>
       </c>
       <c r="AS25">
-        <v>0.8</v>
+        <v>0.81</v>
       </c>
       <c r="AT25">
         <v>0.81</v>
       </c>
       <c r="AU25">
-        <v>0.81</v>
+        <v>0.82</v>
       </c>
       <c r="AV25">
         <v>0.82</v>
       </c>
       <c r="AW25">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AX25">
-        <v>0.83</v>
+        <v>0.84</v>
       </c>
       <c r="AY25">
         <v>0.84</v>
       </c>
       <c r="AZ25">
-        <v>0.84</v>
+        <v>0.85</v>
       </c>
       <c r="BA25">
         <v>0.85</v>
       </c>
       <c r="BB25">
-        <v>0.85</v>
+        <v>0.86</v>
       </c>
       <c r="BC25">
         <v>0.86</v>
@@ -7227,7 +7151,7 @@
         <v>0.86</v>
       </c>
       <c r="BE25">
-        <v>0.86</v>
+        <v>0.87</v>
       </c>
       <c r="BF25">
         <v>0.87</v>
@@ -7239,7 +7163,7 @@
         <v>0.87</v>
       </c>
       <c r="BI25">
-        <v>0.87</v>
+        <v>0.88</v>
       </c>
       <c r="BJ25">
         <v>0.88</v>
@@ -7248,7 +7172,7 @@
         <v>0.88</v>
       </c>
       <c r="BL25">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="BM25">
         <v>0.89</v>
@@ -7260,7 +7184,7 @@
         <v>0.89</v>
       </c>
       <c r="BP25">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="BQ25">
         <v>0.9</v>
@@ -7275,7 +7199,7 @@
         <v>0.9</v>
       </c>
       <c r="BU25">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="BV25">
         <v>0.91</v>
@@ -7290,7 +7214,7 @@
         <v>0.91</v>
       </c>
       <c r="BZ25">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
       <c r="CA25">
         <v>0.92</v>
@@ -7305,27 +7229,24 @@
         <v>0.92</v>
       </c>
       <c r="CE25">
-        <v>0.92</v>
+        <v>0.93</v>
       </c>
       <c r="CF25">
         <v>0.93</v>
       </c>
-      <c r="CG25">
-        <v>0.93</v>
-      </c>
     </row>
-    <row r="26" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A26">
+        <v>43</v>
+      </c>
+      <c r="B26">
+        <v>12</v>
+      </c>
+      <c r="C26">
         <v>1</v>
       </c>
-      <c r="B26">
-        <v>43</v>
-      </c>
-      <c r="C26">
-        <v>12</v>
-      </c>
       <c r="D26">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="E26">
         <v>0.7</v>
@@ -7340,7 +7261,7 @@
         <v>0.7</v>
       </c>
       <c r="I26">
-        <v>0.7</v>
+        <v>0.71</v>
       </c>
       <c r="J26">
         <v>0.71</v>
@@ -7367,7 +7288,7 @@
         <v>0.71</v>
       </c>
       <c r="R26">
-        <v>0.71</v>
+        <v>0.72</v>
       </c>
       <c r="S26">
         <v>0.72</v>
@@ -7388,7 +7309,7 @@
         <v>0.72</v>
       </c>
       <c r="Y26">
-        <v>0.72</v>
+        <v>0.73</v>
       </c>
       <c r="Z26">
         <v>0.73</v>
@@ -7403,7 +7324,7 @@
         <v>0.73</v>
       </c>
       <c r="AD26">
-        <v>0.73</v>
+        <v>0.74</v>
       </c>
       <c r="AE26">
         <v>0.74</v>
@@ -7415,7 +7336,7 @@
         <v>0.74</v>
       </c>
       <c r="AH26">
-        <v>0.74</v>
+        <v>0.75</v>
       </c>
       <c r="AI26">
         <v>0.75</v>
@@ -7427,7 +7348,7 @@
         <v>0.75</v>
       </c>
       <c r="AL26">
-        <v>0.75</v>
+        <v>0.76</v>
       </c>
       <c r="AM26">
         <v>0.76</v>
@@ -7442,7 +7363,7 @@
         <v>0.76</v>
       </c>
       <c r="AQ26">
-        <v>0.76</v>
+        <v>0.77</v>
       </c>
       <c r="AR26">
         <v>0.77</v>
@@ -7451,31 +7372,31 @@
         <v>0.77</v>
       </c>
       <c r="AT26">
-        <v>0.77</v>
+        <v>0.78</v>
       </c>
       <c r="AU26">
-        <v>0.78</v>
+        <v>0.79</v>
       </c>
       <c r="AV26">
         <v>0.79</v>
       </c>
       <c r="AW26">
-        <v>0.79</v>
+        <v>0.8</v>
       </c>
       <c r="AX26">
         <v>0.8</v>
       </c>
       <c r="AY26">
-        <v>0.8</v>
+        <v>0.81</v>
       </c>
       <c r="AZ26">
-        <v>0.81</v>
+        <v>0.82</v>
       </c>
       <c r="BA26">
         <v>0.82</v>
       </c>
       <c r="BB26">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="BC26">
         <v>0.83</v>
@@ -7484,7 +7405,7 @@
         <v>0.83</v>
       </c>
       <c r="BE26">
-        <v>0.83</v>
+        <v>0.84</v>
       </c>
       <c r="BF26">
         <v>0.84</v>
@@ -7493,7 +7414,7 @@
         <v>0.84</v>
       </c>
       <c r="BH26">
-        <v>0.84</v>
+        <v>0.85</v>
       </c>
       <c r="BI26">
         <v>0.85</v>
@@ -7502,7 +7423,7 @@
         <v>0.85</v>
       </c>
       <c r="BK26">
-        <v>0.85</v>
+        <v>0.86</v>
       </c>
       <c r="BL26">
         <v>0.86</v>
@@ -7511,7 +7432,7 @@
         <v>0.86</v>
       </c>
       <c r="BN26">
-        <v>0.86</v>
+        <v>0.87</v>
       </c>
       <c r="BO26">
         <v>0.87</v>
@@ -7526,7 +7447,7 @@
         <v>0.87</v>
       </c>
       <c r="BS26">
-        <v>0.87</v>
+        <v>0.88</v>
       </c>
       <c r="BT26">
         <v>0.88</v>
@@ -7538,7 +7459,7 @@
         <v>0.88</v>
       </c>
       <c r="BW26">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="BX26">
         <v>0.89</v>
@@ -7550,7 +7471,7 @@
         <v>0.89</v>
       </c>
       <c r="CA26">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="CB26">
         <v>0.9</v>
@@ -7565,24 +7486,21 @@
         <v>0.9</v>
       </c>
       <c r="CF26">
-        <v>0.9</v>
-      </c>
-      <c r="CG26">
         <v>0.91</v>
       </c>
     </row>
-    <row r="27" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A27">
+        <v>44</v>
+      </c>
+      <c r="B27">
+        <v>6</v>
+      </c>
+      <c r="C27">
         <v>1</v>
       </c>
-      <c r="B27">
-        <v>44</v>
-      </c>
-      <c r="C27">
-        <v>6</v>
-      </c>
       <c r="D27">
-        <v>1</v>
+        <v>0.81</v>
       </c>
       <c r="E27">
         <v>0.81</v>
@@ -7603,7 +7521,7 @@
         <v>0.81</v>
       </c>
       <c r="K27">
-        <v>0.81</v>
+        <v>0.82</v>
       </c>
       <c r="L27">
         <v>0.82</v>
@@ -7639,7 +7557,7 @@
         <v>0.82</v>
       </c>
       <c r="W27">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="X27">
         <v>0.83</v>
@@ -7660,7 +7578,7 @@
         <v>0.83</v>
       </c>
       <c r="AD27">
-        <v>0.83</v>
+        <v>0.84</v>
       </c>
       <c r="AE27">
         <v>0.84</v>
@@ -7678,7 +7596,7 @@
         <v>0.84</v>
       </c>
       <c r="AJ27">
-        <v>0.84</v>
+        <v>0.85</v>
       </c>
       <c r="AK27">
         <v>0.85</v>
@@ -7699,7 +7617,7 @@
         <v>0.85</v>
       </c>
       <c r="AQ27">
-        <v>0.85</v>
+        <v>0.86</v>
       </c>
       <c r="AR27">
         <v>0.86</v>
@@ -7708,7 +7626,7 @@
         <v>0.86</v>
       </c>
       <c r="AT27">
-        <v>0.86</v>
+        <v>0.87</v>
       </c>
       <c r="AU27">
         <v>0.87</v>
@@ -7717,13 +7635,13 @@
         <v>0.87</v>
       </c>
       <c r="AW27">
-        <v>0.87</v>
+        <v>0.88</v>
       </c>
       <c r="AX27">
         <v>0.88</v>
       </c>
       <c r="AY27">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AZ27">
         <v>0.89</v>
@@ -7732,7 +7650,7 @@
         <v>0.89</v>
       </c>
       <c r="BB27">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="BC27">
         <v>0.9</v>
@@ -7741,7 +7659,7 @@
         <v>0.9</v>
       </c>
       <c r="BE27">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="BF27">
         <v>0.91</v>
@@ -7756,7 +7674,7 @@
         <v>0.91</v>
       </c>
       <c r="BJ27">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
       <c r="BK27">
         <v>0.92</v>
@@ -7768,7 +7686,7 @@
         <v>0.92</v>
       </c>
       <c r="BN27">
-        <v>0.92</v>
+        <v>0.93</v>
       </c>
       <c r="BO27">
         <v>0.93</v>
@@ -7789,7 +7707,7 @@
         <v>0.93</v>
       </c>
       <c r="BU27">
-        <v>0.93</v>
+        <v>0.94</v>
       </c>
       <c r="BV27">
         <v>0.94</v>
@@ -7807,7 +7725,7 @@
         <v>0.94</v>
       </c>
       <c r="CA27">
-        <v>0.94</v>
+        <v>0.95</v>
       </c>
       <c r="CB27">
         <v>0.95</v>
@@ -7824,22 +7742,19 @@
       <c r="CF27">
         <v>0.95</v>
       </c>
-      <c r="CG27">
-        <v>0.95</v>
-      </c>
     </row>
-    <row r="28" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A28">
+        <v>45</v>
+      </c>
+      <c r="B28">
+        <v>3</v>
+      </c>
+      <c r="C28">
         <v>1</v>
       </c>
-      <c r="B28">
-        <v>45</v>
-      </c>
-      <c r="C28">
-        <v>3</v>
-      </c>
       <c r="D28">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="E28">
         <v>0.6</v>
@@ -7872,7 +7787,7 @@
         <v>0.6</v>
       </c>
       <c r="O28">
-        <v>0.6</v>
+        <v>0.61</v>
       </c>
       <c r="P28">
         <v>0.61</v>
@@ -7911,7 +7826,7 @@
         <v>0.61</v>
       </c>
       <c r="AB28">
-        <v>0.61</v>
+        <v>0.62</v>
       </c>
       <c r="AC28">
         <v>0.62</v>
@@ -7935,7 +7850,7 @@
         <v>0.62</v>
       </c>
       <c r="AJ28">
-        <v>0.62</v>
+        <v>0.63</v>
       </c>
       <c r="AK28">
         <v>0.63</v>
@@ -7956,7 +7871,7 @@
         <v>0.63</v>
       </c>
       <c r="AQ28">
-        <v>0.63</v>
+        <v>0.64</v>
       </c>
       <c r="AR28">
         <v>0.64</v>
@@ -7968,7 +7883,7 @@
         <v>0.64</v>
       </c>
       <c r="AU28">
-        <v>0.64</v>
+        <v>0.65</v>
       </c>
       <c r="AV28">
         <v>0.65</v>
@@ -7977,7 +7892,7 @@
         <v>0.65</v>
       </c>
       <c r="AX28">
-        <v>0.65</v>
+        <v>0.66</v>
       </c>
       <c r="AY28">
         <v>0.66</v>
@@ -7986,7 +7901,7 @@
         <v>0.66</v>
       </c>
       <c r="BA28">
-        <v>0.66</v>
+        <v>0.67</v>
       </c>
       <c r="BB28">
         <v>0.67</v>
@@ -8001,7 +7916,7 @@
         <v>0.67</v>
       </c>
       <c r="BF28">
-        <v>0.67</v>
+        <v>0.68</v>
       </c>
       <c r="BG28">
         <v>0.68</v>
@@ -8016,7 +7931,7 @@
         <v>0.68</v>
       </c>
       <c r="BK28">
-        <v>0.68</v>
+        <v>0.69</v>
       </c>
       <c r="BL28">
         <v>0.69</v>
@@ -8037,7 +7952,7 @@
         <v>0.69</v>
       </c>
       <c r="BR28">
-        <v>0.69</v>
+        <v>0.7</v>
       </c>
       <c r="BS28">
         <v>0.7</v>
@@ -8061,7 +7976,7 @@
         <v>0.7</v>
       </c>
       <c r="BZ28">
-        <v>0.7</v>
+        <v>0.71</v>
       </c>
       <c r="CA28">
         <v>0.71</v>
@@ -8081,279 +7996,273 @@
       <c r="CF28">
         <v>0.71</v>
       </c>
-      <c r="CG28">
-        <v>0.71</v>
-      </c>
     </row>
-    <row r="29" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A29">
+        <v>46</v>
+      </c>
+      <c r="B29">
         <v>1</v>
-      </c>
-      <c r="B29">
-        <v>46</v>
       </c>
       <c r="C29">
         <v>1</v>
       </c>
       <c r="D29">
+        <v>0.98</v>
+      </c>
+      <c r="E29">
+        <v>0.98</v>
+      </c>
+      <c r="F29">
+        <v>0.98</v>
+      </c>
+      <c r="G29">
+        <v>0.98</v>
+      </c>
+      <c r="H29">
+        <v>0.98</v>
+      </c>
+      <c r="I29">
+        <v>0.98</v>
+      </c>
+      <c r="J29">
+        <v>0.98</v>
+      </c>
+      <c r="K29">
+        <v>0.98</v>
+      </c>
+      <c r="L29">
+        <v>0.98</v>
+      </c>
+      <c r="M29">
+        <v>0.98</v>
+      </c>
+      <c r="N29">
+        <v>0.98</v>
+      </c>
+      <c r="O29">
+        <v>0.98</v>
+      </c>
+      <c r="P29">
+        <v>0.98</v>
+      </c>
+      <c r="Q29">
+        <v>0.98</v>
+      </c>
+      <c r="R29">
+        <v>0.98</v>
+      </c>
+      <c r="S29">
+        <v>0.98</v>
+      </c>
+      <c r="T29">
+        <v>0.98</v>
+      </c>
+      <c r="U29">
+        <v>0.98</v>
+      </c>
+      <c r="V29">
+        <v>0.98</v>
+      </c>
+      <c r="W29">
+        <v>0.98</v>
+      </c>
+      <c r="X29">
+        <v>0.98</v>
+      </c>
+      <c r="Y29">
+        <v>0.98</v>
+      </c>
+      <c r="Z29">
+        <v>0.98</v>
+      </c>
+      <c r="AA29">
+        <v>0.98</v>
+      </c>
+      <c r="AB29">
+        <v>0.98</v>
+      </c>
+      <c r="AC29">
+        <v>0.98</v>
+      </c>
+      <c r="AD29">
+        <v>0.98</v>
+      </c>
+      <c r="AE29">
+        <v>0.98</v>
+      </c>
+      <c r="AF29">
+        <v>0.98</v>
+      </c>
+      <c r="AG29">
+        <v>0.98</v>
+      </c>
+      <c r="AH29">
+        <v>0.98</v>
+      </c>
+      <c r="AI29">
+        <v>0.98</v>
+      </c>
+      <c r="AJ29">
+        <v>0.98</v>
+      </c>
+      <c r="AK29">
+        <v>0.98</v>
+      </c>
+      <c r="AL29">
+        <v>0.98</v>
+      </c>
+      <c r="AM29">
+        <v>0.98</v>
+      </c>
+      <c r="AN29">
+        <v>0.98</v>
+      </c>
+      <c r="AO29">
+        <v>0.98</v>
+      </c>
+      <c r="AP29">
+        <v>0.98</v>
+      </c>
+      <c r="AQ29">
+        <v>0.98</v>
+      </c>
+      <c r="AR29">
+        <v>0.98</v>
+      </c>
+      <c r="AS29">
+        <v>0.98</v>
+      </c>
+      <c r="AT29">
+        <v>0.98</v>
+      </c>
+      <c r="AU29">
+        <v>0.98</v>
+      </c>
+      <c r="AV29">
+        <v>0.98</v>
+      </c>
+      <c r="AW29">
+        <v>0.98</v>
+      </c>
+      <c r="AX29">
+        <v>0.98</v>
+      </c>
+      <c r="AY29">
+        <v>0.98</v>
+      </c>
+      <c r="AZ29">
+        <v>0.98</v>
+      </c>
+      <c r="BA29">
+        <v>0.98</v>
+      </c>
+      <c r="BB29">
+        <v>0.98</v>
+      </c>
+      <c r="BC29">
+        <v>0.98</v>
+      </c>
+      <c r="BD29">
+        <v>0.98</v>
+      </c>
+      <c r="BE29">
+        <v>0.98</v>
+      </c>
+      <c r="BF29">
+        <v>0.98</v>
+      </c>
+      <c r="BG29">
+        <v>0.98</v>
+      </c>
+      <c r="BH29">
+        <v>0.98</v>
+      </c>
+      <c r="BI29">
+        <v>0.98</v>
+      </c>
+      <c r="BJ29">
+        <v>0.98</v>
+      </c>
+      <c r="BK29">
+        <v>0.98</v>
+      </c>
+      <c r="BL29">
+        <v>0.98</v>
+      </c>
+      <c r="BM29">
+        <v>0.98</v>
+      </c>
+      <c r="BN29">
+        <v>0.98</v>
+      </c>
+      <c r="BO29">
+        <v>0.98</v>
+      </c>
+      <c r="BP29">
+        <v>0.98</v>
+      </c>
+      <c r="BQ29">
+        <v>0.98</v>
+      </c>
+      <c r="BR29">
+        <v>0.98</v>
+      </c>
+      <c r="BS29">
+        <v>0.98</v>
+      </c>
+      <c r="BT29">
+        <v>0.98</v>
+      </c>
+      <c r="BU29">
+        <v>0.98</v>
+      </c>
+      <c r="BV29">
+        <v>0.98</v>
+      </c>
+      <c r="BW29">
+        <v>0.98</v>
+      </c>
+      <c r="BX29">
+        <v>0.98</v>
+      </c>
+      <c r="BY29">
+        <v>0.98</v>
+      </c>
+      <c r="BZ29">
+        <v>0.98</v>
+      </c>
+      <c r="CA29">
+        <v>0.98</v>
+      </c>
+      <c r="CB29">
+        <v>0.98</v>
+      </c>
+      <c r="CC29">
+        <v>0.98</v>
+      </c>
+      <c r="CD29">
+        <v>0.98</v>
+      </c>
+      <c r="CE29">
+        <v>0.98</v>
+      </c>
+      <c r="CF29">
+        <v>0.98</v>
+      </c>
+    </row>
+    <row r="30" spans="1:84" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>50</v>
+      </c>
+      <c r="B30">
+        <v>14</v>
+      </c>
+      <c r="C30">
         <v>1</v>
       </c>
-      <c r="E29">
-        <v>0.98</v>
-      </c>
-      <c r="F29">
-        <v>0.98</v>
-      </c>
-      <c r="G29">
-        <v>0.98</v>
-      </c>
-      <c r="H29">
-        <v>0.98</v>
-      </c>
-      <c r="I29">
-        <v>0.98</v>
-      </c>
-      <c r="J29">
-        <v>0.98</v>
-      </c>
-      <c r="K29">
-        <v>0.98</v>
-      </c>
-      <c r="L29">
-        <v>0.98</v>
-      </c>
-      <c r="M29">
-        <v>0.98</v>
-      </c>
-      <c r="N29">
-        <v>0.98</v>
-      </c>
-      <c r="O29">
-        <v>0.98</v>
-      </c>
-      <c r="P29">
-        <v>0.98</v>
-      </c>
-      <c r="Q29">
-        <v>0.98</v>
-      </c>
-      <c r="R29">
-        <v>0.98</v>
-      </c>
-      <c r="S29">
-        <v>0.98</v>
-      </c>
-      <c r="T29">
-        <v>0.98</v>
-      </c>
-      <c r="U29">
-        <v>0.98</v>
-      </c>
-      <c r="V29">
-        <v>0.98</v>
-      </c>
-      <c r="W29">
-        <v>0.98</v>
-      </c>
-      <c r="X29">
-        <v>0.98</v>
-      </c>
-      <c r="Y29">
-        <v>0.98</v>
-      </c>
-      <c r="Z29">
-        <v>0.98</v>
-      </c>
-      <c r="AA29">
-        <v>0.98</v>
-      </c>
-      <c r="AB29">
-        <v>0.98</v>
-      </c>
-      <c r="AC29">
-        <v>0.98</v>
-      </c>
-      <c r="AD29">
-        <v>0.98</v>
-      </c>
-      <c r="AE29">
-        <v>0.98</v>
-      </c>
-      <c r="AF29">
-        <v>0.98</v>
-      </c>
-      <c r="AG29">
-        <v>0.98</v>
-      </c>
-      <c r="AH29">
-        <v>0.98</v>
-      </c>
-      <c r="AI29">
-        <v>0.98</v>
-      </c>
-      <c r="AJ29">
-        <v>0.98</v>
-      </c>
-      <c r="AK29">
-        <v>0.98</v>
-      </c>
-      <c r="AL29">
-        <v>0.98</v>
-      </c>
-      <c r="AM29">
-        <v>0.98</v>
-      </c>
-      <c r="AN29">
-        <v>0.98</v>
-      </c>
-      <c r="AO29">
-        <v>0.98</v>
-      </c>
-      <c r="AP29">
-        <v>0.98</v>
-      </c>
-      <c r="AQ29">
-        <v>0.98</v>
-      </c>
-      <c r="AR29">
-        <v>0.98</v>
-      </c>
-      <c r="AS29">
-        <v>0.98</v>
-      </c>
-      <c r="AT29">
-        <v>0.98</v>
-      </c>
-      <c r="AU29">
-        <v>0.98</v>
-      </c>
-      <c r="AV29">
-        <v>0.98</v>
-      </c>
-      <c r="AW29">
-        <v>0.98</v>
-      </c>
-      <c r="AX29">
-        <v>0.98</v>
-      </c>
-      <c r="AY29">
-        <v>0.98</v>
-      </c>
-      <c r="AZ29">
-        <v>0.98</v>
-      </c>
-      <c r="BA29">
-        <v>0.98</v>
-      </c>
-      <c r="BB29">
-        <v>0.98</v>
-      </c>
-      <c r="BC29">
-        <v>0.98</v>
-      </c>
-      <c r="BD29">
-        <v>0.98</v>
-      </c>
-      <c r="BE29">
-        <v>0.98</v>
-      </c>
-      <c r="BF29">
-        <v>0.98</v>
-      </c>
-      <c r="BG29">
-        <v>0.98</v>
-      </c>
-      <c r="BH29">
-        <v>0.98</v>
-      </c>
-      <c r="BI29">
-        <v>0.98</v>
-      </c>
-      <c r="BJ29">
-        <v>0.98</v>
-      </c>
-      <c r="BK29">
-        <v>0.98</v>
-      </c>
-      <c r="BL29">
-        <v>0.98</v>
-      </c>
-      <c r="BM29">
-        <v>0.98</v>
-      </c>
-      <c r="BN29">
-        <v>0.98</v>
-      </c>
-      <c r="BO29">
-        <v>0.98</v>
-      </c>
-      <c r="BP29">
-        <v>0.98</v>
-      </c>
-      <c r="BQ29">
-        <v>0.98</v>
-      </c>
-      <c r="BR29">
-        <v>0.98</v>
-      </c>
-      <c r="BS29">
-        <v>0.98</v>
-      </c>
-      <c r="BT29">
-        <v>0.98</v>
-      </c>
-      <c r="BU29">
-        <v>0.98</v>
-      </c>
-      <c r="BV29">
-        <v>0.98</v>
-      </c>
-      <c r="BW29">
-        <v>0.98</v>
-      </c>
-      <c r="BX29">
-        <v>0.98</v>
-      </c>
-      <c r="BY29">
-        <v>0.98</v>
-      </c>
-      <c r="BZ29">
-        <v>0.98</v>
-      </c>
-      <c r="CA29">
-        <v>0.98</v>
-      </c>
-      <c r="CB29">
-        <v>0.98</v>
-      </c>
-      <c r="CC29">
-        <v>0.98</v>
-      </c>
-      <c r="CD29">
-        <v>0.98</v>
-      </c>
-      <c r="CE29">
-        <v>0.98</v>
-      </c>
-      <c r="CF29">
-        <v>0.98</v>
-      </c>
-      <c r="CG29">
-        <v>0.98</v>
-      </c>
-    </row>
-    <row r="30" spans="1:85" x14ac:dyDescent="0.25">
-      <c r="A30">
-        <v>1</v>
-      </c>
-      <c r="B30">
-        <v>50</v>
-      </c>
-      <c r="C30">
-        <v>14</v>
-      </c>
       <c r="D30">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="E30">
         <v>0.9</v>
@@ -8593,9 +8502,6 @@
         <v>0.9</v>
       </c>
       <c r="CF30">
-        <v>0.9</v>
-      </c>
-      <c r="CG30">
         <v>0.9</v>
       </c>
     </row>
